--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,228 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1909900</v>
+      </c>
+      <c r="F8" s="3">
         <v>82500</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>1005700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1105600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1758200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1129700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>694600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>290500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>693600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2088600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>503500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>620100</v>
+      </c>
+      <c r="F9" s="3">
         <v>766900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>750200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>647700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>586800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>501000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>442700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>367400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>318700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>268900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>222300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>198400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>183400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1289800</v>
+      </c>
+      <c r="F10" s="3">
         <v>-684400</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>504700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>662900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1390800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>811000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>425700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>68200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>495200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1905200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +903,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +949,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,52 +999,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>680400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700800</v>
+      </c>
+      <c r="F17" s="3">
         <v>836500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>828600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>737100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>667300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>627500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>506500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>429900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>378000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>326000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>276300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>252300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>238800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1209100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-754000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>378200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>599100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1328300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>751700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>368600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>441300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1849800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,28 +1240,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1219,52 +1286,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-746500</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>429100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>606200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1334100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>758000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>375500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>22000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>448400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1857500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,96 +1386,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3666900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1209100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-754100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-846700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>378200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>599100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1328300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>751700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>368700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>441400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1849700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3640200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1209700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-747200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-849300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>385400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>595900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1327700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>746800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>367300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>440400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1848500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3675800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1174200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-783200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-881600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>353900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>564500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1294000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>714600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>337200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>417000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1825100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,28 +1836,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1747,52 +1886,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3675800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1174200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-783200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-881600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>353900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>564500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1294000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>714600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>337200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>417000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1825100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3675800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1174200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-783200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-881600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>353900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>564500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1294000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>714600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>337200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>417000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1825100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2823500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1850700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1793900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1982300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1522600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1735700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1082700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1135300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>984300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>706600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>867800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>819400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1539700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,52 +2231,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>454700</v>
+      </c>
+      <c r="F43" s="3">
         <v>677000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>446300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1965200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>426100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1614100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>345500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>372100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>324800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>633200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>273000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>621000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>321900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2331,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,8 +2381,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,140 +2431,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91481800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>126785300</v>
+      </c>
+      <c r="F47" s="3">
         <v>125202700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>128200500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>114349800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>102335700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>101767100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>96187200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>97801300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>98868900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>94302200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>82258300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>81415900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>84238100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>663100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>632600</v>
+      </c>
+      <c r="F48" s="3">
         <v>654100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>660000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>664200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>654600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>660100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>386600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>480100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>486000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>470900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>474500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>462800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>474600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>92800</v>
+      </c>
+      <c r="F49" s="3">
         <v>94900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>96600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>98600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>100900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>103000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>91000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>92800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>95000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>97600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>100500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>103300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>106000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2681,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2492,8 +2731,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96917300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>130295100</v>
+      </c>
+      <c r="F54" s="3">
         <v>128956100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>131800800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>119172500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>105787500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>105961800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>98833000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100382200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>101760100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>97574200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>84976600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>84659000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>87905000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2875,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2643,113 +2904,131 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>207800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>121200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>84900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>161400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>184300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>72580200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>101740700</v>
+      </c>
+      <c r="F58" s="3">
         <v>102595300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>105093500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>88476200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>80581700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>78691200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>75760700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>78015400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>77696300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>69430300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>62497400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>62719100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>65215800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1562100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1317700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1192100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1698200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5645000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1548100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3007800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1936600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>723900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1257500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5801900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1534800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>828600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>533700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2792,52 +3071,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8655100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10563500</v>
+      </c>
+      <c r="F61" s="3">
         <v>8894600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8184600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>8426700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8575600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8801500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6799100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7044700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7119000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7383100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7536000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7677700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7865000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2880,8 +3171,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84213800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>114503100</v>
+      </c>
+      <c r="F66" s="3">
         <v>113736800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>116098100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>103396300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>91675400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>91011800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>85064400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>86445000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>86894600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>83425400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>72374100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>72018900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>75336900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3171,34 +3506,34 @@
         <v>1982000</v>
       </c>
       <c r="E70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="G70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1778200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1778200</v>
       </c>
       <c r="H70" s="3">
         <v>1778200</v>
       </c>
       <c r="I70" s="3">
+        <v>1778200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1778200</v>
+      </c>
+      <c r="K70" s="3">
         <v>1723200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1723200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1720400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1720400</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1200600</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1200600</v>
       </c>
       <c r="O70" s="3">
         <v>1200600</v>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12382600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8309400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10721400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13810000</v>
+      </c>
+      <c r="F76" s="3">
         <v>13237300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13592300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>13998000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12333900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13171800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12045400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12214100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13145100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12428400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11402000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11439500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11367600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3675800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1174200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-783200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-881600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>353900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>564500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1294000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>714600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>337200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>417000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1825100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>50900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>9300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>10100</v>
       </c>
       <c r="N83" s="3">
         <v>9300</v>
       </c>
       <c r="O83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2023300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1195800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-709300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-744000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-942100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-401100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>733100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>957100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1332900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1977700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4841900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-64900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>177600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6022700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-680700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-180100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-168700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-269500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>99800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-266500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-91600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-78900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-214600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-259400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-113600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>34104500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-876100</v>
+      </c>
+      <c r="F94" s="3">
         <v>3250300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-488900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2019500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-945900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>258300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>2535200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400600</v>
+        <v>-357600</v>
       </c>
       <c r="E96" s="3">
-        <v>-466600</v>
+        <v>-294900</v>
       </c>
       <c r="F96" s="3">
-        <v>-426800</v>
+        <v>-428800</v>
       </c>
       <c r="G96" s="3">
-        <v>-135500</v>
+        <v>-434400</v>
       </c>
       <c r="H96" s="3">
-        <v>-644500</v>
+        <v>-394300</v>
       </c>
       <c r="I96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-612800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-379300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-381600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-367100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-327800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-329200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-329100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-293300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,52 +4806,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31108400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-262900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>16315600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8632900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1543100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>707400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-109300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>8176200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7594600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-537100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,48 +4906,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>972800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-188400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>459700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-213100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>653000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-52600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>151100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>277700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-161300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>167100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-118700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-720300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-842400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,95 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>1180700</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1909900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82500</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
@@ -758,99 +761,105 @@
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>1005700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1105600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1758200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1129700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>694600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>290500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>693600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2088600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E9" s="3">
         <v>503500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>620100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>766900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>750200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>647700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>586800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>442700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>367400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>318700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>222300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>198400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>183400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>994700</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1289800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-684400</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
@@ -858,35 +867,38 @@
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>504700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>662900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1390800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>811000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>425700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>495200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1905200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1050,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1040,23 +1059,26 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,72 +1147,76 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E17" s="3">
         <v>680400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>836500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>828600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>737100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>667300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>627500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>506500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>429900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>378000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>326000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>276300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>252300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>238800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>858300</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1209100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-754000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
@@ -1195,35 +1224,38 @@
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>378200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>599100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1328300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>751700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>368600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>441300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1849800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,22 +1274,23 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1298,8 @@
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1292,22 +1325,25 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>867500</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1216600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-746500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1315,35 +1351,38 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>429100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>606200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1334100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>758000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>375500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>448400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1857500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,108 +1431,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>858300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1209100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-754100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-846700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>378200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>599100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1328300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>751700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>368700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>441400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1849700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-26700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>856200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1209700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-747200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-849300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>385400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>595900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1327700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>746800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>367300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>440400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1848500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>820700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1174200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-783200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-881600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>353900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>564500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1294000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>714600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>337200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>417000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1825100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,22 +1908,25 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
@@ -1865,8 +1934,8 @@
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1892,58 +1961,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>820700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1174200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-783200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-881600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>353900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>564500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1294000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>714600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>337200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>417000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1825100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>820700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1174200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-783200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-881600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>353900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>564500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1294000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>714600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>337200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>417000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1825100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,58 +2222,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1393900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2823500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1850700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1793900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1982300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1522600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1735700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1082700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1135300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>984300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>706600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>867800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>819400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1539700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,58 +2326,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1047200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1342000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>454700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>677000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>446300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1965200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>426100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1614100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>345500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>372100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>324800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>633200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>273000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>621000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>321900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,8 +2432,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2485,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2437,158 +2538,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>89800700</v>
+      </c>
+      <c r="E47" s="3">
         <v>91481800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>126785300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>125202700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>128200500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>114349800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102335700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>101767100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>96187200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97801300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>98868900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94302200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82258300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81415900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>84238100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>656100</v>
+      </c>
+      <c r="E48" s="3">
         <v>663100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>632600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>654100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>660000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>664200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>654600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>660100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>386600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>480100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>486000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>470900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>474500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>462800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>474600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E49" s="3">
         <v>98300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>92800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>94900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>96600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>98600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>100900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>103000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>91000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>92800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>95000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>97600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>100500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>103300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>106000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2803,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2737,8 +2856,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2909,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93458700</v>
+      </c>
+      <c r="E54" s="3">
         <v>96917300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130295100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>128956100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>131800800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>119172500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105787500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105961800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98833000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100382200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>101760100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97574200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84976600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84659000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>87905000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,8 +3006,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2910,125 +3040,134 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>207800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>121200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>161400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>184300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>67163600</v>
+      </c>
+      <c r="E58" s="3">
         <v>72580200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>101740700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>102595300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>105093500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>88476200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>80581700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>78691200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>75760700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>78015400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>77696300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>69430300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>62497400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>62719100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>65215800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2632200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1562100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1317700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1192100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1698200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5645000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1548100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3007800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1936600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>723900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1257500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5801900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1534800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>828600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>533700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3077,58 +3216,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8505700</v>
+      </c>
+      <c r="E61" s="3">
         <v>8655100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10563500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8894600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8184600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8426700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8575600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8801500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6799100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7044700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7119000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7383100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7536000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7677700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7865000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3177,8 +3322,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3481,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79665200</v>
+      </c>
+      <c r="E66" s="3">
         <v>84213800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114503100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>113736800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116098100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103396300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91675400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91011800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85064400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86445000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86894600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83425400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72374100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72018900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>75336900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3512,10 +3679,10 @@
         <v>1982000</v>
       </c>
       <c r="G70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="H70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1778200</v>
       </c>
       <c r="I70" s="3">
         <v>1778200</v>
@@ -3524,19 +3691,19 @@
         <v>1778200</v>
       </c>
       <c r="K70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="L70" s="3">
         <v>1723200</v>
       </c>
       <c r="M70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="N70" s="3">
         <v>1720400</v>
       </c>
       <c r="O70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="P70" s="3">
         <v>1200600</v>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3767,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11871900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3979,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11811400</v>
+      </c>
+      <c r="E76" s="3">
         <v>10721400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13810000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13237300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13592300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13998000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12333900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13171800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12045400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12214100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13145100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12428400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11402000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11439500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11367600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>820700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1174200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-783200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-881600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>353900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>564500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1294000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>714600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>337200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>417000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1825100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1195800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-709300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-744000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-942100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-401100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>733100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>957100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1332900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1977700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4841900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-64900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>177600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6022700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4611,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-680700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-180100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-168700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-269500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>99800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-266500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-91600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-78900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-214600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-259400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-113600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4317700</v>
+      </c>
+      <c r="E94" s="3">
         <v>34104500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-876100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3250300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-488900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2019500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-945900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>258300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2535200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4621,49 +4854,52 @@
         <v>-357600</v>
       </c>
       <c r="E96" s="3">
+        <v>-357600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-294900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-428800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-434400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-394300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-103000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-612800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-379300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-381600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-367100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-327800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-329200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-329100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-293300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,58 +5054,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6430300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-262900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16315600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8632900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1543100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>707400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8176200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7594600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-537100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,54 +5160,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1429600</v>
+      </c>
+      <c r="E102" s="3">
         <v>972800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-188400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>459700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-213100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>653000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-52600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>151100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>277700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-161300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>167100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-118700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-720300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-842400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,101 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1167200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1180700</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1909900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
@@ -764,105 +767,111 @@
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>1005700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1105600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1758200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1129700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>694600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>290500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>693600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2088600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E9" s="3">
         <v>186000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>503500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>620100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>766900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>750200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>647700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>586800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>501000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>442700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>367400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>318700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>268900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>222300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>198400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>183400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1052100</v>
+      </c>
+      <c r="E10" s="3">
         <v>994700</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1289800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-684400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
@@ -870,35 +879,38 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>504700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>662900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1390800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>811000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>425700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>495200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1905200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +930,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,8 +984,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1040,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,8 +1072,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1062,23 +1081,26 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1152,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,78 +1173,82 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E17" s="3">
         <v>322400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>680400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>836500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>828600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>737100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>667300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>627500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>506500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>429900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>378000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>326000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>276300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>252300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>238800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1025200</v>
+      </c>
+      <c r="E18" s="3">
         <v>858300</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1209100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-754000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
@@ -1227,35 +1256,38 @@
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>378200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>599100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1328300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>751700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>368600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>441300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1849800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,25 +1307,26 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>8</v>
@@ -1301,8 +1334,8 @@
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1328,25 +1361,28 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1036600</v>
+      </c>
+      <c r="E21" s="3">
         <v>867500</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1216600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-746500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1354,35 +1390,38 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>429100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>606200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1334100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>758000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>375500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>448400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1857500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,114 +1473,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1025300</v>
+      </c>
+      <c r="E23" s="3">
         <v>858300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1209100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-754100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-846700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>378200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>599100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1328300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>751700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>368700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>441400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1849700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-26700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1641,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="E26" s="3">
         <v>856200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1209700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-747200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-849300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>385400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>595900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1327700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>746800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>367300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>440400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1848500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>980200</v>
+      </c>
+      <c r="E27" s="3">
         <v>820700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1174200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-783200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-881600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>353900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>564500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1294000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>714600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>337200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>417000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1825100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1809,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1865,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1921,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,25 +1977,28 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
@@ -1937,8 +2006,8 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1964,61 +2033,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>980200</v>
+      </c>
+      <c r="E33" s="3">
         <v>820700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1174200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-783200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-881600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>353900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>564500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1294000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>714600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>337200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>417000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1825100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2145,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>980200</v>
+      </c>
+      <c r="E35" s="3">
         <v>820700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1174200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-783200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-881600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>353900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>564500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1294000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>714600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>337200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>417000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1825100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2286,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,61 +2308,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1393900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2823500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1850700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1793900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1982300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1522600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1735700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1082700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1135300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>984300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>706600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>867800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>819400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1539700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,61 +2418,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>335200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1047200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1342000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>454700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>677000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>446300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1965200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>426100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1614100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>345500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>372100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>324800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>633200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>273000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>621000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>321900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,8 +2530,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2488,8 +2586,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2541,167 +2642,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>89800700</v>
+        <v>86364700</v>
       </c>
       <c r="E47" s="3">
-        <v>91481800</v>
+        <v>89696300</v>
       </c>
       <c r="F47" s="3">
-        <v>126785300</v>
+        <v>91378000</v>
       </c>
       <c r="G47" s="3">
-        <v>125202700</v>
+        <v>126676500</v>
       </c>
       <c r="H47" s="3">
-        <v>128200500</v>
+        <v>125114900</v>
       </c>
       <c r="I47" s="3">
-        <v>114349800</v>
+        <v>128110200</v>
       </c>
       <c r="J47" s="3">
+        <v>114262100</v>
+      </c>
+      <c r="K47" s="3">
         <v>102335700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101767100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>96187200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97801300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>98868900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94302200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82258300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81415900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>84238100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>656100</v>
+        <v>804400</v>
       </c>
       <c r="E48" s="3">
-        <v>663100</v>
+        <v>760600</v>
       </c>
       <c r="F48" s="3">
-        <v>632600</v>
+        <v>766900</v>
       </c>
       <c r="G48" s="3">
-        <v>654100</v>
+        <v>741400</v>
       </c>
       <c r="H48" s="3">
-        <v>660000</v>
+        <v>741900</v>
       </c>
       <c r="I48" s="3">
-        <v>664200</v>
+        <v>750300</v>
       </c>
       <c r="J48" s="3">
+        <v>751900</v>
+      </c>
+      <c r="K48" s="3">
         <v>654600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>660100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>386600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>480100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>486000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>470900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>474500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>462800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>474600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E49" s="3">
         <v>137700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>98300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>92800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>94900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>96600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>98600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>100900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>103000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>91000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>95000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>97600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>100500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>103300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>106000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2866,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,8 +2922,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2859,8 +2978,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3034,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89192400</v>
+      </c>
+      <c r="E54" s="3">
         <v>93458700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96917300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>130295100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>128956100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>131800800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119172500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105787500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105961800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98833000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100382200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101760100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97574200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84976600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84659000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87905000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3114,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,8 +3136,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3043,131 +3173,140 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>207800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>121200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>84900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>161400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>184300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>64633400</v>
+      </c>
+      <c r="E58" s="3">
         <v>67163600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>72580200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>101740700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>102595300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>105093500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>88476200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>80581700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>78691200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>75760700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>78015400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77696300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>69430300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>62497400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>62719100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>65215800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2632200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1562100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1317700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1192100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1698200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5645000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1548100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3007800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1936600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>723900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1257500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5801900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1534800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>828600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>533700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3219,61 +3358,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7396900</v>
+      </c>
+      <c r="E61" s="3">
         <v>8505700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8655100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10563500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8894600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8184600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8426700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8575600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8801500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6799100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7044700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7119000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7383100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7536000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7677700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7865000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3325,8 +3470,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3526,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3582,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3638,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75010200</v>
+      </c>
+      <c r="E66" s="3">
         <v>79665200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84213800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114503100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>113736800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>116098100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>103396300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91675400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91011800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>85064400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86445000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86894600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>83425400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72374100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72018900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75336900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3718,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3772,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3828,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3682,10 +3849,10 @@
         <v>1982000</v>
       </c>
       <c r="H70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="I70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1778200</v>
       </c>
       <c r="J70" s="3">
         <v>1778200</v>
@@ -3694,19 +3861,19 @@
         <v>1778200</v>
       </c>
       <c r="L70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="M70" s="3">
         <v>1723200</v>
       </c>
       <c r="N70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="O70" s="3">
         <v>1720400</v>
       </c>
       <c r="P70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="Q70" s="3">
         <v>1200600</v>
@@ -3717,8 +3884,11 @@
       <c r="S70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +3940,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11200900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4052,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4108,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4164,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12200200</v>
+      </c>
+      <c r="E76" s="3">
         <v>11811400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10721400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13810000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13237300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13592300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13998000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12333900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13171800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12045400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12214100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13145100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12428400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11402000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11439500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11367600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4276,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>980200</v>
+      </c>
+      <c r="E81" s="3">
         <v>820700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1174200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-783200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-881600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>353900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>564500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1294000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>714600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>337200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>417000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1825100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4417,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
         <v>9200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4527,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4583,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4639,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4695,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4751,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="E89" s="3">
         <v>683000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1195800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-709300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-744000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-942100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-401100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>733100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>957100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1332900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1977700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4841900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>177600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6022700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,61 +4831,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-680700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-180100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-168700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-269500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>99800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-266500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-91600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-214600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-259400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-113600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4941,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4997,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1779700</v>
+      </c>
+      <c r="E94" s="3">
         <v>4317700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>34104500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-876100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3250300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-488900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2019500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-945900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>258300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2535200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,61 +5077,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-357600</v>
+        <v>-309700</v>
       </c>
       <c r="E96" s="3">
         <v>-357600</v>
       </c>
       <c r="F96" s="3">
+        <v>-357600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-294900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-428800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-434400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-394300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-103000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-612800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-379300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-381600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-367100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-327800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-329200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-329100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-293300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5187,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5243,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,61 +5299,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2934100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6430300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-262900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16315600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8632900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1543100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>707400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8176200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7594600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-537100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,57 +5411,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1429600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>972800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-188400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>459700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-213100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>653000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-52600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>151100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>277700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-161300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>167100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-118700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-720300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-842400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1006200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1167200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1180700</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1909900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>8</v>
@@ -770,111 +773,117 @@
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>1005700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1105600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1758200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1129700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>694600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>290500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>693600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2088600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E9" s="3">
         <v>115100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>186000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>503500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>620100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>766900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>750200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>647700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>586800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>501000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>442700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>367400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>318700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>268900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>222300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>198400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>183400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>911700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1052100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>994700</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1289800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-684400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
@@ -882,35 +891,38 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>504700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>662900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1390800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>811000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>425700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>495200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1905200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -931,8 +943,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1000,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,8 +1059,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1094,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1084,23 +1103,26 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,8 +1177,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1174,84 +1199,88 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E17" s="3">
         <v>142000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>322400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>680400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>836500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>828600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>737100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>667300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>627500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>506500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>429900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>378000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>326000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>276300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>252300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>238800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>865200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1025200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>858300</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1209100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-754000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
@@ -1259,35 +1288,38 @@
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>378200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>599100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1328300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>751700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>368600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>441300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1849800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,8 +1340,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,17 +1352,17 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
@@ -1337,8 +1370,8 @@
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1364,28 +1397,31 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>878300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1036600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>867500</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1216600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-746500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1393,35 +1429,38 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>429100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>606200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1334100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>758000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>375500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>448400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1857500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,120 +1515,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1025300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>858300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1209100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-754100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-846700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>378200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>599100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1328300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>751700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>368700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>441400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1849700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E24" s="3">
         <v>9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-26700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,120 +1692,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>878600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1015500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>856200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1209700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-747200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-849300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>385400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>595900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1327700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>746800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>367300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>440400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1848500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>841700</v>
+      </c>
+      <c r="E27" s="3">
         <v>980200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>820700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1174200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-783200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-881600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>353900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>564500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1294000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>714600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>337200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>417000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1825100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,8 +1869,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1868,8 +1928,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +1987,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,8 +2046,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,17 +2060,17 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
@@ -2009,8 +2078,8 @@
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2036,64 +2105,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>841700</v>
+      </c>
+      <c r="E33" s="3">
         <v>980200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>820700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1174200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-783200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-881600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>353900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>564500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1294000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>714600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>337200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>417000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1825100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,125 +2223,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>841700</v>
+      </c>
+      <c r="E35" s="3">
         <v>980200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>820700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1174200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-783200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-881600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>353900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>564500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1294000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>714600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>337200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>417000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1825100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2371,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2309,64 +2394,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1243700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1240000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1393900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2823500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1850700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1793900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1982300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1522600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1735700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1082700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1135300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>984300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>706600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>867800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>819400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1539700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,64 +2510,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E43" s="3">
         <v>335200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1047200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1342000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>454700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>677000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>446300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1965200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>426100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1614100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>345500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>372100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>324800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>633200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>273000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>621000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>321900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2533,8 +2628,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2589,8 +2687,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2645,176 +2746,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>85747100</v>
+      </c>
+      <c r="E47" s="3">
         <v>86364700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>89696300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>91378000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>126676500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>125114900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>128110200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>114262100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102335700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101767100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>96187200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97801300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>98868900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94302200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82258300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81415900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>84238100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>669500</v>
+      </c>
+      <c r="E48" s="3">
         <v>804400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>760600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>766900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>741400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>741900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>750300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>751900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>654600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>660100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>386600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>480100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>486000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>470900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>474500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>462800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>474600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E49" s="3">
         <v>136900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>137700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>98300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>92800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>94900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>96600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>98600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>100900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>103000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>91000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>95000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>97600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>100500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>103300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>106000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +2982,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,8 +3041,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2981,8 +3100,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,64 +3159,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88455100</v>
+      </c>
+      <c r="E54" s="3">
         <v>89192400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93458700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96917300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>130295100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>128956100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>131800800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119172500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105787500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105961800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98833000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100382200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101760100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97574200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84976600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84659000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87905000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3115,8 +3243,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3137,8 +3266,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3176,137 +3306,146 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>207800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>121200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>84900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>161400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>184300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>64641200</v>
+      </c>
+      <c r="E58" s="3">
         <v>64633400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>67163600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>72580200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>101740700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>102595300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>105093500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>88476200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>80581700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>78691200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>75760700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>78015400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>77696300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>69430300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>62497400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>62719100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>65215800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1658000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2632200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1562100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1317700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1192100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1698200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5645000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1548100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3007800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1936600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>723900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1257500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5801900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1534800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>828600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>533700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3361,64 +3500,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7181200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7396900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8505700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8655100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10563500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8894600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8184600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8426700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8575600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8801500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6799100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7044700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7119000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7383100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7536000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7677700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7865000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3473,8 +3618,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3529,8 +3677,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,8 +3736,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3641,64 +3795,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74446800</v>
+      </c>
+      <c r="E66" s="3">
         <v>75010200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>79665200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84213800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114503100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>113736800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>116098100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>103396300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91675400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91011800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>85064400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86445000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86894600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83425400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72374100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72018900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75336900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3719,8 +3879,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +3936,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3831,13 +3995,16 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="E70" s="3">
         <v>1982000</v>
@@ -3852,10 +4019,10 @@
         <v>1982000</v>
       </c>
       <c r="I70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="J70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1778200</v>
       </c>
       <c r="K70" s="3">
         <v>1778200</v>
@@ -3864,19 +4031,19 @@
         <v>1778200</v>
       </c>
       <c r="M70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="N70" s="3">
         <v>1723200</v>
       </c>
       <c r="O70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="P70" s="3">
         <v>1720400</v>
       </c>
       <c r="Q70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="R70" s="3">
         <v>1200600</v>
@@ -3887,8 +4054,11 @@
       <c r="T70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3943,64 +4113,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10667400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4055,8 +4231,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4290,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4167,64 +4349,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12471700</v>
+      </c>
+      <c r="E76" s="3">
         <v>12200200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11811400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10721400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13810000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13237300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13592300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13998000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12333900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13171800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12045400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12214100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13145100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12428400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11402000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11439500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11367600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4279,125 +4467,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>841700</v>
+      </c>
+      <c r="E81" s="3">
         <v>980200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>820700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1174200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-783200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-881600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>353900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>564500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1294000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>714600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>337200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>417000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1825100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4418,64 +4615,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,8 +4731,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,8 +4790,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,8 +4849,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4698,8 +4908,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4754,64 +4967,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>867800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>683000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1195800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-709300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-744000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-942100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-401100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>733100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>957100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1332900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1977700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4841900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-64900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>177600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6022700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4832,64 +5051,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-680700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-180100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-168700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-269500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>99800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-266500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-91600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-214600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-259400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-113600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4944,8 +5167,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5000,64 +5226,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E94" s="3">
         <v>1779700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4317700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>34104500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-876100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3250300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-488900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2019500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-945900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>258300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2535200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5078,64 +5310,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-309700</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-357600</v>
       </c>
       <c r="F96" s="3">
         <v>-357600</v>
       </c>
       <c r="G96" s="3">
+        <v>-357600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-294900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-428800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-434400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-394300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-103000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-612800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-379300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-381600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-367100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-327800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-329200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-329100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-293300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5190,8 +5426,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5246,8 +5485,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5302,64 +5544,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1014000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6430300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-262900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16315600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8632900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1543100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>707400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8176200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7594600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-537100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5414,60 +5662,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-153900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1429600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>972800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-188400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>459700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-213100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>653000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-52600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>151100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>277700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-161300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>167100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-118700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-720300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-842400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,264 +665,277 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1986400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1006200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1167200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1180700</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
         <v>1909900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>1005700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1105600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1758200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1129700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>694600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>290500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>693600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2088600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E9" s="3">
         <v>94500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>186000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>503500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>620100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>766900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>750200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>647700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>586800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>501000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>442700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>367400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>318700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>268900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>222300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>198400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>183400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1910400</v>
+      </c>
+      <c r="E10" s="3">
         <v>911700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1052100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>994700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
         <v>1289800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-684400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>504700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>662900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1390800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>811000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>425700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>68200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>495200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1905200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,8 +957,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1017,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,31 +1079,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>249600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1097,8 +1117,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1106,23 +1126,26 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1180,8 +1203,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1200,126 +1226,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>235600</v>
+      </c>
+      <c r="E17" s="3">
         <v>141000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>142000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>322400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>680400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>836500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>828600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>737100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>667300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>627500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>506500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>429900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>378000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>326000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>276300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>252300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>238800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1750800</v>
+      </c>
+      <c r="E18" s="3">
         <v>865200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1025200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>858300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>1209100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-754000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>378200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>599100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1328300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>751700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>368600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>441300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1849800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,8 +1374,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,17 +1389,17 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
@@ -1373,8 +1407,8 @@
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1400,67 +1434,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1759200</v>
+      </c>
+      <c r="E21" s="3">
         <v>878300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1036600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>867500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>1216600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-746500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>429100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>606200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1334100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>758000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>375500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>448400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1857500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,126 +1558,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1750800</v>
+      </c>
+      <c r="E23" s="3">
         <v>865100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1025300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>858300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1209100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-754100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-846700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>378200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>599100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1328300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>751700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>368700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>441400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1849700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-26700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1695,126 +1744,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1751100</v>
+      </c>
+      <c r="E26" s="3">
         <v>878600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1015500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>856200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1209700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-747200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-849300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>385400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>595900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1327700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>746800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>367300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>440400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1848500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1723900</v>
+      </c>
+      <c r="E27" s="3">
         <v>841700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>980200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>820700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1174200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-783200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-881600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>353900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>564500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1294000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>714600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>337200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>417000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1825100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,8 +1930,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1931,8 +1992,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +2054,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2049,8 +2116,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,17 +2133,17 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
@@ -2081,8 +2151,8 @@
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2108,67 +2178,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1723900</v>
+      </c>
+      <c r="E33" s="3">
         <v>841700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>980200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>820700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1174200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-783200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-881600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>353900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>564500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1294000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>714600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>337200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>417000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1825100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2226,131 +2302,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1723900</v>
+      </c>
+      <c r="E35" s="3">
         <v>841700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>980200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>820700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1174200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-783200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-881600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>353900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>564500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1294000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>714600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>337200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>417000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1825100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2372,8 +2457,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2395,67 +2481,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1122800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1243700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1393900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2823500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1850700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1793900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1982300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1522600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1735700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1082700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1135300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>984300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>706600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>867800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>819400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1539700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,67 +2603,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>404600</v>
+      </c>
+      <c r="E43" s="3">
         <v>284000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>335200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1047200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1342000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>454700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>677000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>446300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1965200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>426100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1614100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>345500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>372100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>324800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>633200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>273000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>621000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>321900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2631,8 +2727,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2690,8 +2789,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2749,185 +2851,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78334800</v>
+      </c>
+      <c r="E47" s="3">
         <v>85747100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>86364700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>89696300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>91378000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>126676500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>125114900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>128110200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>114262100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102335700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>101767100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>96187200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>97801300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>98868900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94302200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82258300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81415900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>84238100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
         <v>669500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>804400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>760600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>766900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>741400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>741900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>750300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>751900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>654600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>660100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>386600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>480100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>486000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>470900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>474500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>462800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>474600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E49" s="3">
         <v>127300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>136900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>137700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>98300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>92800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>94900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>96600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>98600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>100900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>103000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>91000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>92800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>95000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>97600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>100500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>103300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>106000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2985,8 +3099,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3044,31 +3161,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>4400700</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3103,8 +3223,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3162,67 +3285,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85369600</v>
+      </c>
+      <c r="E54" s="3">
         <v>88455100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89192400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93458700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96917300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>130295100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128956100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131800800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119172500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105787500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105961800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98833000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100382200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>101760100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97574200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84976600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84659000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87905000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3244,8 +3373,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3267,8 +3397,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3309,143 +3440,152 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>207800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>121200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>84900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>161400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>184300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61202500</v>
+      </c>
+      <c r="E58" s="3">
         <v>64641200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>64633400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>67163600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>72580200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>101740700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>102595300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>105093500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88476200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>80581700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>78691200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>75760700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>78015400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>77696300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>69430300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>62497400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>62719100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>65215800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1658000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2632200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1562100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1317700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1192100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1698200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5645000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1548100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3007800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1936600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>723900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1257500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5801900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1534800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>828600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>533700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3503,90 +3643,96 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3967300</v>
+      </c>
+      <c r="E61" s="3">
         <v>7181200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7396900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8505700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8655100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10563500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8894600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8184600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8426700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8575600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8801500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6799100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7044700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7119000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7383100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7536000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7677700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7865000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>3319400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3621,8 +3767,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3680,8 +3829,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3739,8 +3891,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3798,67 +3953,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71313800</v>
+      </c>
+      <c r="E66" s="3">
         <v>74446800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75010200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79665200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84213800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114503100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>113736800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>116098100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103396300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91675400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91011800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>85064400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86445000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86894600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83425400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72374100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72018900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75336900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3880,8 +4041,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3939,8 +4101,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3998,8 +4163,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4007,7 +4175,7 @@
         <v>1536600</v>
       </c>
       <c r="E70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="F70" s="3">
         <v>1982000</v>
@@ -4022,10 +4190,10 @@
         <v>1982000</v>
       </c>
       <c r="J70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="K70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1778200</v>
       </c>
       <c r="L70" s="3">
         <v>1778200</v>
@@ -4034,19 +4202,19 @@
         <v>1778200</v>
       </c>
       <c r="N70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="O70" s="3">
         <v>1723200</v>
       </c>
       <c r="P70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="Q70" s="3">
         <v>1720400</v>
       </c>
       <c r="R70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="S70" s="3">
         <v>1200600</v>
@@ -4057,8 +4225,11 @@
       <c r="U70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4116,67 +4287,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9251800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4234,8 +4411,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4293,8 +4473,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4352,67 +4535,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12519200</v>
+      </c>
+      <c r="E76" s="3">
         <v>12471700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12200200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11811400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10721400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13810000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13237300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13592300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13998000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12333900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13171800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12045400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12214100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13145100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12428400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11402000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11439500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11367600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4470,131 +4659,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1723900</v>
+      </c>
+      <c r="E81" s="3">
         <v>841700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>980200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>820700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1174200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-783200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-881600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>353900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>564500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1294000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>714600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>337200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>417000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1825100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4616,67 +4814,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4734,8 +4936,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4793,8 +4998,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4852,8 +5060,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4911,8 +5122,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4970,67 +5184,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1064600</v>
+      </c>
+      <c r="E89" s="3">
         <v>867800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>683000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1195800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-709300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-744000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-942100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-401100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>733100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>957100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1332900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1977700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4841900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-64900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>177600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6022700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5052,67 +5272,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-680700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-180100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-168700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-269500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>99800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-266500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-91600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-214600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-259400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-113600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5170,8 +5394,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5229,67 +5456,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2442400</v>
+      </c>
+      <c r="E94" s="3">
         <v>149900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1779700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4317700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>34104500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-876100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3250300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-488900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2019500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-945900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>258300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2535200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5311,67 +5544,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-308700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-309700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-357600</v>
       </c>
       <c r="G96" s="3">
         <v>-357600</v>
       </c>
       <c r="H96" s="3">
+        <v>-357600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-294900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-428800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-434400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-394300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-103000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-612800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-379300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-381600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-367100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-327800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-329200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-329100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-293300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5429,8 +5666,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5488,8 +5728,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5547,67 +5790,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3627900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6430300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-262900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16315600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8632900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1543100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>707400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8176200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7594600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-537100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5665,63 +5914,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-153900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1429600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>972800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-188400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>459700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-213100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>653000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-52600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>151100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>277700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-161300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>167100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-118700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-720300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-842400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,277 +665,290 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>1986400</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
+        <v>1984600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1006200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1167200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1180700</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>1909900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
         <v>1005700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1105600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1758200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1129700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>694600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>290500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>693600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2088600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E9" s="3">
         <v>76000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>186000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>503500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>620100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>766900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>750200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>647700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>586800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>501000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>442700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>367400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>318700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>268900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>222300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>198400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>183400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>1910400</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>1908600</v>
+      </c>
+      <c r="F10" s="3">
         <v>911700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1052100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>994700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>1289800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-684400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>504700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>662900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1390800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>811000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>425700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>68200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>495200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1905200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,8 +971,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1034,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,17 +1099,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>249600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1128,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1120,8 +1140,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1129,23 +1149,26 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,8 +1229,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1227,132 +1253,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235600</v>
+        <v>113500</v>
       </c>
       <c r="E17" s="3">
+        <v>233800</v>
+      </c>
+      <c r="F17" s="3">
         <v>141000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>142000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>322400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>680400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>836500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>828600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>737100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>667300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>627500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>506500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>429900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>378000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>326000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>276300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>252300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>238800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>1750800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>865200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1025200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>858300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>1209100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-754000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>378200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>599100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1328300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>751700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>368600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>441300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1849800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1375,13 +1408,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1392,17 +1426,17 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
@@ -1410,8 +1444,8 @@
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1437,70 +1471,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1759200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>878300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1036600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>867500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>1216600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-746500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>429100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>606200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1334100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>758000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>375500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>448400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1857500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1561,132 +1601,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-289700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1750800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>865100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1025300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>858300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1209100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-754100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-846700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>378200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>599100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1328300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>751700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>368700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>441400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1849700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-26700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1747,132 +1796,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1751100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>878600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1015500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>856200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1209700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-747200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-849300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>385400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>595900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1327700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>746800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>367300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>440400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1848500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1723900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>841700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>980200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>820700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1174200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-783200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-881600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>353900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>564500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>714600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>337200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>417000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1825100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1991,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2056,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2057,8 +2121,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2119,13 +2186,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2136,17 +2206,17 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
@@ -2154,8 +2224,8 @@
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2181,70 +2251,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1723900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>841700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>980200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>820700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1174200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-783200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-881600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>353900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>564500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>714600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>337200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>417000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1825100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2305,137 +2381,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1723900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>841700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>980200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>820700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1174200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-783200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-881600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>353900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>564500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>714600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>337200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>417000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1825100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2458,8 +2543,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2482,70 +2568,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1380500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1122800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1243700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1240000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1393900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2823500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1850700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1793900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1982300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1522600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1735700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1082700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1135300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>984300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>706600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>867800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>819400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1539700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2606,70 +2696,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E43" s="3">
         <v>404600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>284000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>335200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1047200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1342000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>454700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>677000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>446300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1965200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>426100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1614100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>345500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>372100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>324800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>633200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>273000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>621000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>321900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2730,8 +2826,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2792,8 +2891,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2854,194 +2956,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>76920200</v>
+      </c>
+      <c r="E47" s="3">
         <v>78334800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>85747100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>86364700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>89696300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>91378000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>126676500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>125114900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>128110200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>114262100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102335700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>101767100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96187200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>97801300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>98868900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>94302200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82258300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81415900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>84238100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>669500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>804400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>760600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>766900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>741400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>741900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>750300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>751900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>654600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>660100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>386600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>480100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>486000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>470900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>474500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>462800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>474600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E49" s="3">
         <v>37300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>127300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>136900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>137700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>98300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>92800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>94900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>96600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>98600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>100900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>103000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>91000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>95000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>97600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>100500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>103300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>106000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3102,8 +3216,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3164,17 +3281,20 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3302000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3190,8 +3310,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3226,8 +3346,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3288,70 +3411,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82376300</v>
+      </c>
+      <c r="E54" s="3">
         <v>85369600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88455100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89192400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93458700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96917300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>130295100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>128956100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131800800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119172500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105787500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105961800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98833000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100382200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>101760100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>97574200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84976600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84659000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87905000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3374,8 +3503,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3398,8 +3528,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3443,149 +3574,158 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>207800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>121200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>84900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>161400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>184300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>60221100</v>
+      </c>
+      <c r="E58" s="3">
         <v>61202500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>64641200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>64633400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>67163600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>72580200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>101740700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>102595300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>105093500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>88476200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>80581700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>78691200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>75760700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>78015400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>77696300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>69430300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>62497400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>62719100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>65215800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>661300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1495000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1658000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2632200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1562100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1317700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1192100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1698200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5645000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1548100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3007800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1936600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>723900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1257500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5801900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1534800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>828600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>533700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3646,79 +3786,85 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4224700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3967300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7181200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7396900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8505700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8655100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10563500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8894600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8184600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8426700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8575600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8801500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6799100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7044700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7119000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7383100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7536000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7677700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7865000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2362700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3319400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3734,8 +3880,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3770,8 +3916,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3832,8 +3981,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3894,8 +4046,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3956,70 +4111,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68759200</v>
+      </c>
+      <c r="E66" s="3">
         <v>71313800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74446800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75010200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79665200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>84213800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114503100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>113736800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116098100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103396300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91675400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91011800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>85064400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86445000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86894600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>83425400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72374100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72018900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>75336900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4042,8 +4203,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4104,8 +4266,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4166,8 +4331,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4178,7 +4346,7 @@
         <v>1536600</v>
       </c>
       <c r="F70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="G70" s="3">
         <v>1982000</v>
@@ -4193,10 +4361,10 @@
         <v>1982000</v>
       </c>
       <c r="K70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="L70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1778200</v>
       </c>
       <c r="M70" s="3">
         <v>1778200</v>
@@ -4205,19 +4373,19 @@
         <v>1778200</v>
       </c>
       <c r="O70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="P70" s="3">
         <v>1723200</v>
       </c>
       <c r="Q70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="R70" s="3">
         <v>1720400</v>
       </c>
       <c r="S70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="T70" s="3">
         <v>1200600</v>
@@ -4228,8 +4396,11 @@
       <c r="V70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4290,70 +4461,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9892900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4414,8 +4591,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4476,8 +4656,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4538,70 +4721,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12080500</v>
+      </c>
+      <c r="E76" s="3">
         <v>12519200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12471700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12200200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11811400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10721400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13810000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13237300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13592300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13998000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12333900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13171800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12045400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12214100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13145100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12428400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11402000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11439500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11367600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4662,137 +4851,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1723900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>841700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>980200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>820700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1174200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-783200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-881600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>353900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>564500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>714600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>337200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>417000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1825100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4815,70 +5013,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4939,8 +5141,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5001,8 +5206,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5063,8 +5271,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5125,8 +5336,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5187,70 +5401,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>506500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1064600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>867800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>683000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1195800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-709300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-744000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-942100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-401100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>733100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>957100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1332900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1977700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4841900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-64900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>177600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6022700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5273,70 +5493,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-680700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-180100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-168700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-269500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>99800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-266500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-91600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-78900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-214600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-259400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-113600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5397,8 +5621,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5459,70 +5686,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>330100</v>
+      </c>
+      <c r="E94" s="3">
         <v>2442400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>149900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1779700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4317700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>34104500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-876100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3250300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-488900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2019500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-945900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>258300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2535200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5545,8 +5778,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5554,61 +5788,64 @@
         <v>-307700</v>
       </c>
       <c r="E96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-308700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-309700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-357600</v>
       </c>
       <c r="H96" s="3">
         <v>-357600</v>
       </c>
       <c r="I96" s="3">
+        <v>-357600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-294900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-428800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-434400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-394300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-103000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-612800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-379300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-381600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-367100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-327800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-329200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-329100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-293300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5669,8 +5906,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5731,8 +5971,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5793,70 +6036,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-578900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6430300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-262900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16315600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8632900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1543100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>707400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-109300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8176200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7594600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-537100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5917,66 +6166,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-120900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-153900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1429600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>972800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-188400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>459700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-213100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>653000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-52600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>151100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>277700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-161300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>167100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-118700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-720300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-842400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,290 +665,303 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
         <v>1984600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1006200</v>
       </c>
-      <c r="G8" s="3">
-        <v>1167200</v>
-      </c>
       <c r="H8" s="3">
-        <v>1180700</v>
+        <v>1163000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>1909900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3">
         <v>1005700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1105600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1758200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1129700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>694600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>290500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>693600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2088600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E9" s="3">
         <v>61000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>76000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115100</v>
       </c>
-      <c r="H9" s="3">
-        <v>186000</v>
-      </c>
       <c r="I9" s="3">
+        <v>689500</v>
+      </c>
+      <c r="J9" s="3">
         <v>503500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>620100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>766900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>750200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>647700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>586800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>501000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>442700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>367400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>318700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>268900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>222300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>198400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>183400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>566600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
         <v>1908600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>911700</v>
       </c>
-      <c r="G10" s="3">
-        <v>1052100</v>
-      </c>
       <c r="H10" s="3">
-        <v>994700</v>
+        <v>1047900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>1289800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-684400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
         <v>504700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>662900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1390800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>811000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>425700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>68200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>495200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1905200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,8 +985,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1102,28 +1119,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>249600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1131,8 +1151,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1143,8 +1163,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1152,23 +1172,26 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1254,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E17" s="3">
         <v>113500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>233800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141000</v>
       </c>
-      <c r="G17" s="3">
-        <v>142000</v>
-      </c>
       <c r="H17" s="3">
-        <v>322400</v>
+        <v>137700</v>
       </c>
       <c r="I17" s="3">
+        <v>992200</v>
+      </c>
+      <c r="J17" s="3">
         <v>680400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>836500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>828600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>737100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>667300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>627500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>506500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>429900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>378000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>326000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>276300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>252300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>238800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>514800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>1750800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>865200</v>
       </c>
-      <c r="G18" s="3">
-        <v>1025200</v>
-      </c>
       <c r="H18" s="3">
-        <v>858300</v>
+        <v>1025300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>1209100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-754000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>378200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>599100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1328300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>751700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>368600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>441300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1849800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1409,16 +1442,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1432,14 +1466,14 @@
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
@@ -1447,8 +1481,8 @@
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1474,73 +1508,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>518100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>1759200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>878300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1036600</v>
       </c>
-      <c r="H21" s="3">
-        <v>867500</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>1216600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-746500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>429100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>606200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1334100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>758000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>375500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>448400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1857500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,138 +1644,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>514800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-289700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1750800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>865100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1025300</v>
       </c>
-      <c r="H23" s="3">
-        <v>858300</v>
-      </c>
       <c r="I23" s="3">
+        <v>-2808600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1209100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-754100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-846700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>378200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>599100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1328300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>751700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>368700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>441400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1849700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
-        <v>2100</v>
-      </c>
       <c r="I24" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="J24" s="3">
         <v>-26700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1799,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-294800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1751100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>878600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1015500</v>
       </c>
-      <c r="H26" s="3">
-        <v>856200</v>
-      </c>
       <c r="I26" s="3">
+        <v>-2784000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1209700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-747200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-849300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>385400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>595900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1327700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>746800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>367300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>440400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1848500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>492400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-322500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1723900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>841700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>980200</v>
       </c>
-      <c r="H27" s="3">
-        <v>820700</v>
-      </c>
       <c r="I27" s="3">
+        <v>-2855100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1174200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-783200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-881600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>353900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>564500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1294000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>714600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>337200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>417000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1825100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1994,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2120,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2189,16 +2256,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2212,14 +2282,14 @@
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
@@ -2227,8 +2297,8 @@
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2254,73 +2324,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>492400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-322500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1723900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>841700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>980200</v>
       </c>
-      <c r="H33" s="3">
-        <v>820700</v>
-      </c>
       <c r="I33" s="3">
+        <v>-2855100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1174200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-783200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-881600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>353900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>564500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1294000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>714600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>337200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>417000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1825100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2384,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>492400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-322500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1723900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>841700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>980200</v>
       </c>
-      <c r="H35" s="3">
-        <v>820700</v>
-      </c>
       <c r="I35" s="3">
+        <v>-2855100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1174200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-783200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-881600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>353900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>564500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1294000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>714600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>337200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>417000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1825100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2544,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2569,73 +2655,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1046300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1380500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1122800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1243700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1393900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2823500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1850700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1793900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1982300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1522600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1735700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1082700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1135300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>984300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>706600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>867800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>819400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1539700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2699,73 +2789,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277300</v>
+      </c>
+      <c r="E43" s="3">
         <v>264500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>404600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>284000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>335200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1047200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1342000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>454700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>677000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>446300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1965200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>426100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1614100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>345500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>372100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>324800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>633200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>273000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>621000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>321900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2829,8 +2925,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2894,8 +2993,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2959,203 +3061,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>74571100</v>
+      </c>
+      <c r="E47" s="3">
         <v>76920200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78334800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>85747100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>86364700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>89696300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91378000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>126676500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>125114900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>128110200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>114262100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>102335700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>101767100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96187200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>97801300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>98868900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>94302200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82258300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81415900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>84238100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>669500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>804400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>760600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>766900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>741400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>741900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>750300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>751900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>654600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>660100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>386600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>480100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>486000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>470900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>474500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>462800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>474600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E49" s="3">
         <v>26500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>136900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>137700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>98300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>92800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>94900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>96600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>98600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>100900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>103000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>91000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>95000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>97600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>100500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>103300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>106000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3219,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3284,20 +3401,23 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3302000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3313,8 +3433,8 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3349,8 +3469,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3414,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76662400</v>
+      </c>
+      <c r="E54" s="3">
         <v>82376300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85369600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>88455100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89192400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>93458700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96917300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>130295100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128956100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>131800800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119172500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105787500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105961800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98833000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100382200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>101760100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97574200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84976600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>84659000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>87905000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3504,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3529,8 +3659,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3577,155 +3708,164 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>207800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>121200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>84900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>161400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>184300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55475400</v>
+      </c>
+      <c r="E58" s="3">
         <v>60221100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61202500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>64641200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>64633400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>67163600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>72580200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>101740700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>102595300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>105093500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>88476200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>80581700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>78691200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>75760700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>78015400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>77696300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>69430300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>62497400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>62719100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>65215800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1014700</v>
+      </c>
+      <c r="E59" s="3">
         <v>661300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1495000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1658000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2632200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1562100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1317700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1192100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1698200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5645000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1548100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3007800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1936600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>723900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1257500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5801900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1534800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>828600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>533700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3789,85 +3929,91 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4224700</v>
+        <v>5306000</v>
       </c>
       <c r="E61" s="3">
-        <v>3967300</v>
+        <v>4540600</v>
       </c>
       <c r="F61" s="3">
-        <v>7181200</v>
+        <v>4147900</v>
       </c>
       <c r="G61" s="3">
+        <v>7220400</v>
+      </c>
+      <c r="H61" s="3">
         <v>7396900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8505700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8655100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10563500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8894600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8184600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8426700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8575600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8801500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6799100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7044700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7119000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7383100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7536000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7677700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7865000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2362700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3319400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3883,8 +4029,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3919,8 +4065,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3984,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4049,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4114,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62964600</v>
+      </c>
+      <c r="E66" s="3">
         <v>68759200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71313800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74446800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75010200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79665200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>84213800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>114503100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>113736800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>116098100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103396300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91675400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91011800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>85064400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86445000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86894600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>83425400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72374100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72018900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>75336900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4204,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4269,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4334,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4349,7 +4517,7 @@
         <v>1536600</v>
       </c>
       <c r="G70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="H70" s="3">
         <v>1982000</v>
@@ -4364,10 +4532,10 @@
         <v>1982000</v>
       </c>
       <c r="L70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="M70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1778200</v>
       </c>
       <c r="N70" s="3">
         <v>1778200</v>
@@ -4376,19 +4544,19 @@
         <v>1778200</v>
       </c>
       <c r="P70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="Q70" s="3">
         <v>1723200</v>
       </c>
       <c r="R70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="S70" s="3">
         <v>1720400</v>
       </c>
       <c r="T70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="U70" s="3">
         <v>1200600</v>
@@ -4399,8 +4567,11 @@
       <c r="W70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4464,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9720300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4594,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4659,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4724,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12161200</v>
+      </c>
+      <c r="E76" s="3">
         <v>12080500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12519200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12471700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12200200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11811400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10721400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13810000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13237300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13592300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13998000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12333900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13171800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12045400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12214100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13145100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12428400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11402000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11439500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11367600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4854,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>492400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-322500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1723900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>841700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>980200</v>
       </c>
-      <c r="H81" s="3">
-        <v>820700</v>
-      </c>
       <c r="I81" s="3">
+        <v>-2855100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1174200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-783200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-881600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>353900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>564500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1294000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>714600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>337200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>417000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1825100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5014,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>9300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11300</v>
       </c>
-      <c r="H83" s="3">
-        <v>9200</v>
-      </c>
       <c r="I83" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5144,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5209,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5274,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5339,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5404,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>644200</v>
+      </c>
+      <c r="E89" s="3">
         <v>506500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1064600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>867800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000500</v>
       </c>
-      <c r="H89" s="3">
-        <v>683000</v>
-      </c>
       <c r="I89" s="3">
+        <v>-1340300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1195800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-709300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-744000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-942100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-401100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>733100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>957100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1332900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1977700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4841900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-64900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>177600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6022700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5494,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
-        <v>300</v>
-      </c>
       <c r="I91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-680700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-180100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-168700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-269500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>99800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-266500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-91600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-78900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-214600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-259400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-113600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5624,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5689,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3571900</v>
+      </c>
+      <c r="E94" s="3">
         <v>330100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2442400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>149900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1779700</v>
       </c>
-      <c r="H94" s="3">
-        <v>4317700</v>
-      </c>
       <c r="I94" s="3">
+        <v>38422200</v>
+      </c>
+      <c r="J94" s="3">
         <v>34104500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-876100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3250300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-488900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2019500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-945900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>258300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2535200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5779,73 +6012,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-307700</v>
+        <v>-317800</v>
       </c>
       <c r="E96" s="3">
         <v>-307700</v>
       </c>
       <c r="F96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-308700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-309700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>-715200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-357600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-357600</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-294900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-428800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-434400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-394300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-103000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-612800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-379300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-381600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-367100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-327800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-329200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-329100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-293300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5909,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5974,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6039,73 +6282,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4550300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-578900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-6430300</v>
-      </c>
       <c r="I100" s="3">
+        <v>-37538700</v>
+      </c>
+      <c r="J100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-262900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16315600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8632900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1543100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>707400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8176200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7594600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-537100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6169,69 +6418,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-334200</v>
+      </c>
+      <c r="E102" s="3">
         <v>257700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-120900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-153900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1429600</v>
-      </c>
       <c r="I102" s="3">
+        <v>-456800</v>
+      </c>
+      <c r="J102" s="3">
         <v>972800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-188400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>459700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-213100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>653000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-52600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>151100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>277700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-161300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>167100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-118700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-720300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-842400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,315 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>544300</v>
+      </c>
+      <c r="E8" s="3">
         <v>617000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>1984600</v>
       </c>
-      <c r="G8" s="3">
-        <v>1006200</v>
-      </c>
       <c r="H8" s="3">
+        <v>1004100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1163000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>1909900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1005700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1105600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1758200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1129700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>694600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>290500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>693600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2088600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E9" s="3">
         <v>50400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>76000</v>
       </c>
-      <c r="G9" s="3">
-        <v>94500</v>
-      </c>
       <c r="H9" s="3">
+        <v>94600</v>
+      </c>
+      <c r="I9" s="3">
         <v>115100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>689500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>503500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>620100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>766900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>750200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>647700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>586800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>501000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>442700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>367400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>318700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>268900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>222300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>198400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>183400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>482500</v>
+      </c>
+      <c r="E10" s="3">
         <v>566600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>1908600</v>
       </c>
-      <c r="G10" s="3">
-        <v>911700</v>
-      </c>
       <c r="H10" s="3">
+        <v>909500</v>
+      </c>
+      <c r="I10" s="3">
         <v>1047900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>1289800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-684400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
         <v>504700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>662900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1390800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>811000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>425700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>68200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>495200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1905200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +998,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1067,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,31 +1138,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G14" s="3">
         <v>249600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1154,8 +1173,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1166,8 +1185,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1175,23 +1194,26 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,8 +1280,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E17" s="3">
         <v>102200</v>
       </c>
-      <c r="E17" s="3">
-        <v>113500</v>
-      </c>
       <c r="F17" s="3">
+        <v>117800</v>
+      </c>
+      <c r="G17" s="3">
         <v>233800</v>
       </c>
-      <c r="G17" s="3">
-        <v>141000</v>
-      </c>
       <c r="H17" s="3">
+        <v>139000</v>
+      </c>
+      <c r="I17" s="3">
         <v>137700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>992200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>680400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>836500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>828600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>737100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>667300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>627500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>506500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>429900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>378000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>326000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>276300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>252300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>238800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>425100</v>
+      </c>
+      <c r="E18" s="3">
         <v>514800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>1750800</v>
       </c>
-      <c r="G18" s="3">
-        <v>865200</v>
-      </c>
       <c r="H18" s="3">
+        <v>865100</v>
+      </c>
+      <c r="I18" s="3">
         <v>1025300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>1209100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-754000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>378200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>599100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1328300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>751700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>368600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>441300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1849800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,19 +1475,20 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1463,20 +1496,20 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
@@ -1484,8 +1517,8 @@
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1511,76 +1544,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>428600</v>
+      </c>
+      <c r="E21" s="3">
         <v>518100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>1759200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>878300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1036600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>1216600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-746500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>429100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>606200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1334100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>758000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>375500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>448400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1857500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1647,144 +1686,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>425100</v>
+      </c>
+      <c r="E23" s="3">
         <v>514800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-289700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1750800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>865100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1025300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1209100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-754100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-846700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>378200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>599100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1328300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>751700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>368700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>441400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1849700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-13500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-24600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-26700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>418500</v>
+      </c>
+      <c r="E26" s="3">
         <v>521500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-294800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1751100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>878600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1015500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1209700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-747200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-849300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>385400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>595900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1327700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>746800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>367300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>440400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1848500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E27" s="3">
         <v>492400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-322500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1723900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>841700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>980200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1174200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-783200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-881600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>353900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>564500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1294000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>714600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>337200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>417000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1825100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2123,8 +2183,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,19 +2325,22 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2279,20 +2348,20 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
@@ -2300,8 +2369,8 @@
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2327,76 +2396,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E33" s="3">
         <v>492400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-322500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1723900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>841700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>980200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1174200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-783200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-881600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>353900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>564500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1294000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>714600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>337200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>417000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1825100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E35" s="3">
         <v>492400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-322500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1723900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>841700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>980200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1174200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-783200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-881600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>353900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>564500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1294000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>714600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>337200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>417000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1825100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,76 +2741,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1342100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1046300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1380500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1122800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1243700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1240000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1393900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2823500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1850700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1793900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1982300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1522600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1735700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1082700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1135300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>984300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>706600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>867800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>819400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1539700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,76 +2881,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E43" s="3">
         <v>277300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>264500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>404600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>284000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>335200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1047200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1342000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>454700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>677000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>446300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1965200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>426100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1614100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>345500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>372100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>324800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>633200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>273000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>621000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>321900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2928,8 +3023,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2996,8 +3094,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3064,212 +3165,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>74597900</v>
+      </c>
+      <c r="E47" s="3">
         <v>74571100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>76920200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78334800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>85747100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>86364700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>89696300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91378000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>126676500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>125114900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>128110200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>114262100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>102335700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>101767100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96187200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>97801300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>98868900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>94302200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82258300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81415900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>84238100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E48" s="3">
         <v>11200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>669500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>804400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>760600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>766900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>741400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>741900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>750300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>751900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>654600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>660100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>386600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>480100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>486000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>470900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>474500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>462800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>474600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E49" s="3">
         <v>25400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>136900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>137700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>98300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>92800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>94900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>96600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>98600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>100900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>103000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>91000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>95000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>97600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>100500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>103300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>106000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,23 +3520,26 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E52" s="3">
         <v>238000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3302000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3436,8 +3555,8 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3472,8 +3591,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76764100</v>
+      </c>
+      <c r="E54" s="3">
         <v>76662400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82376300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85369600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>88455100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89192400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>93458700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96917300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>130295100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>128956100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>131800800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119172500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105787500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105961800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98833000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100382200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>101760100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>97574200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>84976600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>84659000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>87905000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,8 +3789,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3711,161 +3841,170 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>207800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>121200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>84900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>161400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>184300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54769600</v>
+      </c>
+      <c r="E58" s="3">
         <v>55475400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60221100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61202500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>64641200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>64633400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>67163600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>72580200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>101740700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>102595300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>105093500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>88476200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>80581700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>78691200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>75760700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>78015400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77696300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>69430300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>62497400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>62719100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>65215800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>573900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1014700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>661300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1495000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1658000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2632200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1562100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1317700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1192100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1698200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5645000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1548100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3007800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1936600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>723900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1257500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5801900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1534800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>828600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>533700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3932,91 +4071,97 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7108000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5306000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4540600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4147900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7220400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7396900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8505700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8655100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10563500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8894600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8184600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8426700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8575600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8801500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6799100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7044700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7119000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7383100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7536000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7677700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7865000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E62" s="3">
         <v>159500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2362700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3319400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4032,8 +4177,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4068,8 +4213,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63594200</v>
+      </c>
+      <c r="E66" s="3">
         <v>62964600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68759200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71313800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74446800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75010200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79665200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84213800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114503100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>113736800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116098100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>103396300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91675400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91011800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>85064400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86445000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86894600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>83425400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72374100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72018900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75336900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4520,7 +4687,7 @@
         <v>1536600</v>
       </c>
       <c r="H70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="I70" s="3">
         <v>1982000</v>
@@ -4535,10 +4702,10 @@
         <v>1982000</v>
       </c>
       <c r="M70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="N70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1778200</v>
       </c>
       <c r="O70" s="3">
         <v>1778200</v>
@@ -4547,19 +4714,19 @@
         <v>1778200</v>
       </c>
       <c r="Q70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="R70" s="3">
         <v>1723200</v>
       </c>
       <c r="S70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="T70" s="3">
         <v>1720400</v>
       </c>
       <c r="U70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="V70" s="3">
         <v>1200600</v>
@@ -4570,8 +4737,11 @@
       <c r="X70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9653600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11633300</v>
+      </c>
+      <c r="E76" s="3">
         <v>12161200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12080500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12519200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12471700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12200200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11811400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10721400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13810000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13237300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13592300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13998000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12333900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13171800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12045400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12214100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13145100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12428400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11402000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11439500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11367600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E81" s="3">
         <v>492400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-322500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1723900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>841700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>980200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1174200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-783200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-881600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>353900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>564500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1294000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>714600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>337200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>417000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1825100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>861600</v>
+      </c>
+      <c r="E89" s="3">
         <v>644200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>506500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1064600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>867800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1195800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-709300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-744000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-942100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-401100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>733100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>957100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1332900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1977700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4841900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-64900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>177600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6022700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-680700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-180100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-168700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-269500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>99800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-266500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-91600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-214600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-259400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-113600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1445000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3571900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>330100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2442400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>149900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1779700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>38422200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>34104500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-876100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3250300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-488900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2019500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-945900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>258300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2535200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,76 +6245,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-319000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-307700</v>
       </c>
       <c r="F96" s="3">
         <v>-307700</v>
       </c>
       <c r="G96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-308700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-309700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-715200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-357600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-294900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-428800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-434400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-394300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-103000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-612800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-379300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-381600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-367100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-327800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-329200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-329100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-293300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,76 +6527,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>879300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-578900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-262900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16315600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8632900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1543100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>707400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-109300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8176200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7594600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-537100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6421,72 +6669,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>295800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-334200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>257700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-120900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-153900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-456800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>972800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-188400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>459700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-213100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>653000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>151100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>277700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-161300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>167100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-118700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-720300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-842400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,328 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2172100</v>
+      </c>
+      <c r="E8" s="3">
         <v>544300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>617000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <v>1984600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1004100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1163000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>1909900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>82500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="3">
         <v>1005700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1105600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1758200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1129700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>694600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>290500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>693600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2088600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E9" s="3">
         <v>61800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>76000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>94600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>689500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>503500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>620100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>766900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>750200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>647700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>586800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>501000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>442700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>367400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>318700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>268900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>222300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>198400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>183400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2097200</v>
+      </c>
+      <c r="E10" s="3">
         <v>482500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>566600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>1908600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>909500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1047900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>1289800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-684400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
         <v>504700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>662900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1390800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>811000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>425700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>68200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>495200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1905200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1012,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1084,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,34 +1158,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>16500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>249600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1196,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1188,8 +1208,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1197,23 +1217,26 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,8 +1306,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E17" s="3">
         <v>119200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>117800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>233800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>139000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>992200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>680400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>836500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>828600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>737100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>667300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>627500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>506500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>429900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>378000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>326000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>276300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>252300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>238800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2050500</v>
+      </c>
+      <c r="E18" s="3">
         <v>425100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>514800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>1750800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>865100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1025300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>1209100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-754000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>378200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>599100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1328300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>751700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>368600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>441300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1849800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,8 +1509,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1487,11 +1521,11 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1499,20 +1533,20 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
@@ -1520,8 +1554,8 @@
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1547,79 +1581,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2055200</v>
+      </c>
+      <c r="E21" s="3">
         <v>428600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>518100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>1759200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>878300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1036600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1216600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-746500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>429100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>606200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1334100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>758000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>375500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>448400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1857500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1689,150 +1729,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2050400</v>
+      </c>
+      <c r="E23" s="3">
         <v>425100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>514800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-289700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1750800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>865100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1025300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1209100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-754100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-846700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>378200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>599100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1328300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>751700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>368700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>441400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1849700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-13500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-26700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1902,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2023900</v>
+      </c>
+      <c r="E26" s="3">
         <v>418500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>521500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-294800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1751100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>878600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1015500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1209700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-747200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-849300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>385400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>595900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1327700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>746800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>367300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>440400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1848500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1995400</v>
+      </c>
+      <c r="E27" s="3">
         <v>388600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>492400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-322500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1723900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>841700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>980200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1174200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-783200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-881600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>353900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>564500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1294000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>714600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>337200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>417000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1825100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2173,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2186,8 +2247,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,8 +2395,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2339,11 +2409,11 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2351,20 +2421,20 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
@@ -2372,8 +2442,8 @@
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2399,79 +2469,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1995400</v>
+      </c>
+      <c r="E33" s="3">
         <v>388600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>492400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-322500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1723900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>841700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>980200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1174200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-783200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-881600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>353900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>564500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1294000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>714600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>337200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>417000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1825100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1995400</v>
+      </c>
+      <c r="E35" s="3">
         <v>388600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>492400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-322500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1723900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>841700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>980200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1174200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-783200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-881600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>353900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>564500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1294000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>714600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>337200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>417000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1825100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,79 +2828,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>955800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1342100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1046300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1380500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1122800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1243700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1240000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1393900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2823500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1850700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1793900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1982300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1522600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1735700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1082700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1135300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>984300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>706600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>867800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>819400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1539700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,79 +2974,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>654000</v>
+      </c>
+      <c r="E43" s="3">
         <v>237600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>277300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>264500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>404600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>284000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>335200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1047200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1342000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>454700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>677000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>446300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1965200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>426100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1614100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>345500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>372100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>324800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>633200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>273000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>621000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>321900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3026,8 +3122,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3097,8 +3196,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3168,221 +3270,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>73349400</v>
+      </c>
+      <c r="E47" s="3">
         <v>74597900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>74571100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>76920200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>78334800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>85747100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>86364700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>89696300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91378000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>126676500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>125114900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>128110200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>114262100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>102335700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>101767100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96187200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>97801300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>98868900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>94302200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82258300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81415900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>84238100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E48" s="3">
         <v>10500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>669500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>804400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>760600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>766900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>741400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>741900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>750300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>751900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>654600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>660100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>386600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>480100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>486000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>470900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>474500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>462800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>474600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E49" s="3">
         <v>24200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>25400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>136900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>137700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>98300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>92800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>94900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>96600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>98600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>100900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>103000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>91000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>95000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>97600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>100500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>103300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>106000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,26 +3640,29 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>194100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>238000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3302000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3558,8 +3678,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3594,8 +3714,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76185100</v>
+      </c>
+      <c r="E54" s="3">
         <v>76764100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76662400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82376300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85369600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>88455100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89192400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>93458700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96917300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>130295100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>128956100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>131800800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119172500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105787500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105961800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98833000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100382200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>101760100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>97574200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>84976600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>84659000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>87905000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,8 +3920,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3844,167 +3975,176 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>207800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>121200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>84900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>161400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>184300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52626500</v>
+      </c>
+      <c r="E58" s="3">
         <v>54769600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55475400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>60221100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61202500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>64641200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>64633400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>67163600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>72580200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>101740700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>102595300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>105093500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>88476200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>80581700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>78691200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>75760700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>78015400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77696300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>69430300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>62497400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>62719100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>65215800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2407700</v>
+      </c>
+      <c r="E59" s="3">
         <v>573900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1014700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>661300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1495000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1658000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2632200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1562100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1317700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1192100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1698200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5645000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1548100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3007800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1936600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>723900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1257500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5801900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1534800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>828600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>533700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4074,97 +4214,103 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8401600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7108000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5306000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4540600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4147900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7220400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7396900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8505700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8655100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10563500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8894600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8184600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8426700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8575600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8801500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6799100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7044700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7119000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7383100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7536000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7677700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7865000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>155000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>159500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2362700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3319400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,8 +4326,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4216,8 +4362,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4358,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64757900</v>
+      </c>
+      <c r="E66" s="3">
         <v>63594200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62964600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68759200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71313800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74446800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75010200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79665200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84213800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114503100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>113736800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116098100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>103396300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91675400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91011800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>85064400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86445000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86894600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>83425400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72374100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>72018900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>75336900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4690,7 +4858,7 @@
         <v>1536600</v>
       </c>
       <c r="I70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="J70" s="3">
         <v>1982000</v>
@@ -4705,10 +4873,10 @@
         <v>1982000</v>
       </c>
       <c r="N70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="O70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1778200</v>
       </c>
       <c r="P70" s="3">
         <v>1778200</v>
@@ -4717,19 +4885,19 @@
         <v>1778200</v>
       </c>
       <c r="R70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="S70" s="3">
         <v>1723200</v>
       </c>
       <c r="T70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="U70" s="3">
         <v>1720400</v>
       </c>
       <c r="V70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="W70" s="3">
         <v>1200600</v>
@@ -4740,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7980400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9890700</v>
+      </c>
+      <c r="E76" s="3">
         <v>11633300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12161200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12080500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12519200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12471700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12200200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11811400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10721400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13810000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13237300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13592300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13998000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12333900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13171800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12045400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12214100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13145100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12428400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11402000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11439500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11367600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1995400</v>
+      </c>
+      <c r="E81" s="3">
         <v>388600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>492400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-322500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1723900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>841700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>980200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1174200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-783200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-881600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>353900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>564500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1294000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>714600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>337200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>417000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1825100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,79 +5609,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2029100</v>
+      </c>
+      <c r="E89" s="3">
         <v>861600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>644200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>506500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1064600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>867800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1195800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-709300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-744000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-942100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-401100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>733100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>957100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1332900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1977700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4841900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-64900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>177600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6022700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-680700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-180100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-168700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-269500</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>99800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-266500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-91600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-214600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-259400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-113600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1631100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3571900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>330100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2442400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>149900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1779700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>38422200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>34104500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-876100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3250300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-488900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2019500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-945900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>258300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2535200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,79 +6479,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-319000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-307700</v>
       </c>
       <c r="G96" s="3">
         <v>-307700</v>
       </c>
       <c r="H96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-308700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-309700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-715200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-357600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-294900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-428800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-434400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-394300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-612800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-379300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-381600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-367100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-327800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-329200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-329100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-293300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,79 +6773,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-784300</v>
+      </c>
+      <c r="E100" s="3">
         <v>879300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-578900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-262900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16315600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8632900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1543100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>707400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8176200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7594600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-537100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6672,75 +6921,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-386300</v>
+      </c>
+      <c r="E102" s="3">
         <v>295800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-334200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>257700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-120900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-153900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-456800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>972800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-188400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>459700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-213100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>653000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-52600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>151100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>277700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-161300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>167100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-118700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-720300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-842400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,341 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1090300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2172100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>544300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>617000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
         <v>1984600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1004100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1163000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>1909900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="3">
         <v>1005700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1105600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1758200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1129700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>694600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>290500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>693600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2088600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E9" s="3">
         <v>74900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>76000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>689500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>503500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>620100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>766900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>750200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>647700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>586800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>501000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>442700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>367400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>318700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>268900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>222300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>198400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>183400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2097200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>482500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>566600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
         <v>1908600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>909500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1047900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>1289800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-684400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
         <v>504700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>662900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1390800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>811000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>425700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>68200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>495200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1905200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1026,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1101,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,37 +1178,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>249600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1199,8 +1219,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1211,8 +1231,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1220,23 +1240,26 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,8 +1332,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1360,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E17" s="3">
         <v>121600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>119200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>233800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>139000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>992200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>680400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>836500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>828600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>737100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>667300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>627500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>506500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>429900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>378000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>326000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>276300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>252300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>238800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>886700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2050500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>425100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>514800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>1750800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>865100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1025300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>1209100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-754000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>378200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>599100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1328300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>751700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>368600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>441300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1849800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1510,8 +1543,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,11 +1558,11 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1536,20 +1570,20 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
@@ -1557,8 +1591,8 @@
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1584,82 +1618,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>893100</v>
+      </c>
+      <c r="E21" s="3">
         <v>2055200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>428600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>518100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>1759200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>878300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1036600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1216600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-746500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>429100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>606200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1334100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>758000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>375500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>448400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1857500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1732,156 +1772,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>886700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2050400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>425100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>514800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-289700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1750800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>865100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1025300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1209100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-754100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-846700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>378200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>599100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1328300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>751700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>368700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>441400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1849700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E24" s="3">
         <v>26500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-13500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-24600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-26700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,156 +2003,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>863300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2023900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>418500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>521500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-294800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1751100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>878600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1015500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1209700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-747200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-849300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>385400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>595900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1327700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>746800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>367300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>440400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1848500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>839800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1995400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>388600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>492400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-322500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1723900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>841700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>980200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1174200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-783200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-881600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>353900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>564500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1294000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>714600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>337200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>417000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1825100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2176,8 +2234,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2250,8 +2311,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2388,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,8 +2465,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,11 +2482,11 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2424,20 +2494,20 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
@@ -2445,8 +2515,8 @@
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2472,82 +2542,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>839800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1995400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>388600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>492400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-322500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1723900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>841700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>980200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1174200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-783200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-881600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>353900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>564500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1294000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>714600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>337200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>417000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1825100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2696,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>839800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1995400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>388600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>492400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-322500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1723900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>841700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>980200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1174200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-783200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-881600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>353900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>564500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1294000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>714600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>337200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>417000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1825100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2886,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,82 +2915,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>853900</v>
+      </c>
+      <c r="E41" s="3">
         <v>955800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1342100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1046300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1380500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1122800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1243700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1240000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1393900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2823500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1850700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1793900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1982300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1522600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1735700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1082700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1135300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>984300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>706600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>867800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>819400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1539700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2977,82 +3067,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>734300</v>
+      </c>
+      <c r="E43" s="3">
         <v>654000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>237600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>277300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>264500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>404600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>284000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>335200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1047200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1342000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>454700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>677000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>446300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1965200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>426100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1614100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>345500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>372100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>324800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>633200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>273000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>621000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>321900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3125,8 +3221,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3199,8 +3298,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3273,230 +3375,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>70912200</v>
+      </c>
+      <c r="E47" s="3">
         <v>73349400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>74597900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74571100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>76920200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78334800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>85747100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>86364700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>89696300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>91378000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>126676500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>125114900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>128110200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>114262100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>102335700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>101767100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>96187200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>97801300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>98868900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>94302200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82258300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81415900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>84238100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
         <v>9900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>669500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>804400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>760600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>766900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>741400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>741900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>750300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>751900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>654600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>660100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>386600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>480100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>486000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>470900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>474500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>462800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>474600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E49" s="3">
         <v>23100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>25400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>127300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>136900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>137700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>98300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>94900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>96600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>98600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>100900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>103000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>91000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>92800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>95000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>97600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>100500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>103300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>106000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3683,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,29 +3760,32 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>97400</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>194100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>238000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3302000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3681,8 +3801,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3717,8 +3837,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3914,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73637200</v>
+      </c>
+      <c r="E54" s="3">
         <v>76185100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76764100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76662400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>82376300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85369600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>88455100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89192400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93458700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96917300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>130295100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>128956100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>131800800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119172500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105787500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105961800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98833000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>100382200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>101760100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>97574200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>84976600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>84659000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>87905000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4022,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,8 +4051,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3978,173 +4109,182 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>207800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>121200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>84900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>161400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>184300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>51364100</v>
+      </c>
+      <c r="E58" s="3">
         <v>52626500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54769600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>55475400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>60221100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61202500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>64641200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>64633400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>67163600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>72580200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>101740700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>102595300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>105093500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>88476200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>80581700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>78691200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>75760700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>78015400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>77696300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>69430300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>62497400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>62719100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>65215800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2453900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2407700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>573900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1014700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>661300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1495000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1658000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2632200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1562100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1317700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1192100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1698200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5645000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1548100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3007800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1936600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>723900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1257500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5801900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1534800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>828600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>533700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4217,103 +4357,109 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8199400</v>
+      </c>
+      <c r="E61" s="3">
         <v>8401600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7108000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5306000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4540600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4147900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7220400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7396900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8505700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8655100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10563500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8894600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8184600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8426700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8575600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8801500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6799100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7044700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7119000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7383100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7536000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7677700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7865000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>155000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>159500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2362700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3319400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4329,8 +4475,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4365,8 +4511,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4588,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4513,8 +4665,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4742,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62610500</v>
+      </c>
+      <c r="E66" s="3">
         <v>64757900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63594200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62964600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68759200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71313800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74446800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>75010200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79665200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84213800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114503100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>113736800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116098100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>103396300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91675400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91011800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>85064400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86445000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86894600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>83425400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>72374100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72018900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>75336900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4850,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4925,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5002,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4861,7 +5029,7 @@
         <v>1536600</v>
       </c>
       <c r="J70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="K70" s="3">
         <v>1982000</v>
@@ -4876,10 +5044,10 @@
         <v>1982000</v>
       </c>
       <c r="O70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="P70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="P70" s="3">
-        <v>1778200</v>
       </c>
       <c r="Q70" s="3">
         <v>1778200</v>
@@ -4888,19 +5056,19 @@
         <v>1778200</v>
       </c>
       <c r="S70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="T70" s="3">
         <v>1723200</v>
       </c>
       <c r="U70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="V70" s="3">
         <v>1720400</v>
       </c>
       <c r="W70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="X70" s="3">
         <v>1200600</v>
@@ -4911,8 +5079,11 @@
       <c r="Z70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5156,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7496100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7980400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5310,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5387,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5464,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9490200</v>
+      </c>
+      <c r="E76" s="3">
         <v>9890700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11633300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12161200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12080500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12519200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12471700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12200200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11811400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10721400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13810000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13237300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13592300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13998000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12333900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13171800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12045400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12214100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13145100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12428400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11402000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11439500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11367600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5618,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>839800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1995400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>388600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>492400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-322500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1723900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>841700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>980200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1174200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-783200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-881600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>353900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>564500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1294000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>714600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>337200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>417000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1825100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5808,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5960,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6037,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6114,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6191,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6268,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>687700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2029100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>861600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>644200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>506500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1064600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>867800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1195800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-709300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-744000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-942100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-401100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>733100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>957100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1332900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1977700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4841900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-64900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>177600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6022700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6376,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-680700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-180100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-168700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-269500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>99800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-266500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-91600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-78900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-214600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-259400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-113600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6528,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6605,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-418000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1631100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3571900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>330100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2442400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>149900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1779700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>38422200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34104500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-876100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3250300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-488900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2019500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-945900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>258300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2535200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,82 +6713,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-321500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-321200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-319000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-307700</v>
       </c>
       <c r="H96" s="3">
         <v>-307700</v>
       </c>
       <c r="I96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-308700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-309700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-715200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-357600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-294900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-428800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-434400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-394300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-103000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-612800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-379300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-381600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-367100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-327800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-329200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-329100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-293300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6865,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6942,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,82 +7019,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-371600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-784300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>879300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-578900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-262900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16315600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8632900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1543100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>707400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-109300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8176200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7594600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-537100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6924,78 +7173,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-386300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>295800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-334200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>257700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-120900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-153900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-456800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>972800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-188400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>459700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-213100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>653000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-52600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>151100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>277700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-161300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>167100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-118700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-720300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-842400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,354 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1090300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2172100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>544300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>617000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>1984600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1004100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1163000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
         <v>1909900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>82500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="3">
         <v>1005700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1105600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1758200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1129700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>694600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>290500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>693600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2088600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400500</v>
+      </c>
+      <c r="E9" s="3">
         <v>170500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>76000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>689500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>503500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>620100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>766900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>750200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>647700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>586800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>501000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>442700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>367400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>318700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>268900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>222300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>198400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>183400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-239100</v>
+      </c>
+      <c r="E10" s="3">
         <v>919800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2097200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>482500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>566600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>1908600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>909500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1047900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>1289800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-684400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
         <v>504700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>662900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1390800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>811000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>425700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>68200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>495200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1905200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1040,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,8 +1118,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,40 +1198,43 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>249600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1222,8 +1242,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1234,8 +1254,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1243,23 +1263,26 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1358,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1361,162 +1387,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>439700</v>
+      </c>
+      <c r="E17" s="3">
         <v>203600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>119200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>233800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>139000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>137700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>992200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>680400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>836500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>828600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>737100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>667300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>627500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>506500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>429900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>378000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>326000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>276300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>252300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>238800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="E18" s="3">
         <v>886700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2050500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>425100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>514800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>1750800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>865100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1025300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>1209100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-754000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>378200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>599100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1328300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>751700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>368600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>441300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1849800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1544,8 +1577,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,11 +1595,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1573,20 +1607,20 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
@@ -1594,8 +1628,8 @@
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1621,85 +1655,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="E21" s="3">
         <v>893100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2055200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>428600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>518100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>1759200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>878300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1036600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>1216600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-746500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>429100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>606200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1334100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>758000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>375500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>448400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1857500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1775,162 +1815,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="E23" s="3">
         <v>886700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2050400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>425100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>514800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-289700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1750800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>865100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1025300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1209100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-754100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-846700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>378200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>599100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1328300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>751700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>368700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>441400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1849700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>23400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-13500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-24600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-26700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,162 +2055,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="E26" s="3">
         <v>863300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2023900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>418500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>521500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-294800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1751100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>878600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1015500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1209700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-747200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-849300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>385400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>595900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1327700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>746800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>367300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>440400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1848500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-302100</v>
+      </c>
+      <c r="E27" s="3">
         <v>839800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1995400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>388600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>492400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-322500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1723900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>841700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>980200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1174200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-783200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-881600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>353900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>564500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1294000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>714600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>337200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>417000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1825100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2237,8 +2295,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,8 +2375,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2391,8 +2455,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2468,8 +2535,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,11 +2555,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2497,20 +2567,20 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
@@ -2518,8 +2588,8 @@
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2545,85 +2615,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-302100</v>
+      </c>
+      <c r="E33" s="3">
         <v>839800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1995400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>388600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>492400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-322500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1723900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>841700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>980200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1174200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-783200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-881600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>353900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>564500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1294000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>714600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>337200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>417000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1825100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2699,167 +2775,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-302100</v>
+      </c>
+      <c r="E35" s="3">
         <v>839800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1995400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>388600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>492400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-322500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1723900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>841700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>980200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1174200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-783200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-881600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>353900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>564500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1294000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>714600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>337200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>417000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1825100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2887,8 +2972,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2916,85 +3002,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1466200</v>
+      </c>
+      <c r="E41" s="3">
         <v>853900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>955800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1342100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1046300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1380500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1122800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1243700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1240000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1393900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2823500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1850700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1793900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1982300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1522600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1735700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1082700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1135300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>984300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>706600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>867800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>819400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1539700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3070,85 +3160,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2416400</v>
+      </c>
+      <c r="E43" s="3">
         <v>734300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>654000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>237600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>277300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>264500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>404600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>284000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>335200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1047200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1342000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>454700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>677000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>446300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1965200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>426100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1614100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>345500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>372100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>324800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>633200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>273000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>621000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>321900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3224,8 +3320,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3301,8 +3400,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3378,239 +3480,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>79298300</v>
+      </c>
+      <c r="E47" s="3">
         <v>70912200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>73349400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74597900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>74571100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>76920200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>78334800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>85747100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>86364700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>89696300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>91378000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>126676500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>125114900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>128110200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>114262100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>102335700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>101767100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>96187200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>97801300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>98868900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>94302200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82258300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81415900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>84238100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
         <v>9200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>669500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>804400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>760600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>766900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>741400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>741900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>750300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>751900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>654600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>660100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>386600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>480100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>486000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>470900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>474500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>462800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>474600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E49" s="3">
         <v>18200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>127300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>136900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>137700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>98300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>94900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>96600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>98600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>100900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>103000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>91000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>92800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>95000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>97600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>100500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>103300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>106000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3686,8 +3800,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3763,32 +3880,35 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E52" s="3">
         <v>97400</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>194100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>238000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3302000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4400700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3804,8 +3924,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3840,8 +3960,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3917,85 +4040,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85406800</v>
+      </c>
+      <c r="E54" s="3">
         <v>73637200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76185100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76764100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76662400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>82376300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85369600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>88455100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89192400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93458700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96917300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>130295100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>128956100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>131800800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>119172500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105787500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105961800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>98833000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100382200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>101760100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>97574200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>84976600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>84659000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>87905000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4023,8 +4152,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4052,8 +4182,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4112,179 +4243,188 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>207800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>121200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>84900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>161400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>184300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54160700</v>
+      </c>
+      <c r="E58" s="3">
         <v>51364100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52626500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>54769600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>55475400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>60221100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61202500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>64641200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64633400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>67163600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>72580200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>101740700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>102595300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>105093500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>88476200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>80581700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>78691200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>75760700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>78015400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>77696300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>69430300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>62497400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>62719100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>65215800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9787800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2453900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2407700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>573900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1014700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>661300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1495000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1658000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2632200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1562100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1317700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1192100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1698200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5645000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1548100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3007800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1936600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>723900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1257500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5801900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1534800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>828600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>533700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4360,109 +4500,115 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8840200</v>
+      </c>
+      <c r="E61" s="3">
         <v>8199400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8401600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7108000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5306000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4540600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4147900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7220400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7396900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8505700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8655100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10563500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8894600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8184600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8426700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8575600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8801500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6799100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7044700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7119000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7383100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7536000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7677700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7865000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>155000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>159500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2362700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3319400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4478,8 +4624,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4514,8 +4660,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4591,8 +4740,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4668,8 +4820,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4745,85 +4900,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74540600</v>
+      </c>
+      <c r="E66" s="3">
         <v>62610500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64757900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63594200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62964600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68759200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71313800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74446800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75010200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79665200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84213800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114503100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>113736800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116098100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>103396300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91675400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91011800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>85064400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86445000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86894600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>83425400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72374100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>72018900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>75336900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4851,8 +5012,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4928,8 +5090,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5005,8 +5170,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5032,7 +5200,7 @@
         <v>1536600</v>
       </c>
       <c r="K70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="L70" s="3">
         <v>1982000</v>
@@ -5047,10 +5215,10 @@
         <v>1982000</v>
       </c>
       <c r="P70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1778200</v>
       </c>
       <c r="R70" s="3">
         <v>1778200</v>
@@ -5059,19 +5227,19 @@
         <v>1778200</v>
       </c>
       <c r="T70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="U70" s="3">
         <v>1723200</v>
       </c>
       <c r="V70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="W70" s="3">
         <v>1720400</v>
       </c>
       <c r="X70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="Y70" s="3">
         <v>1200600</v>
@@ -5082,8 +5250,11 @@
       <c r="AA70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5159,85 +5330,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8211400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7496100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7980400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5313,8 +5490,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5390,8 +5570,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5467,85 +5650,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9329600</v>
+      </c>
+      <c r="E76" s="3">
         <v>9490200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9890700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11633300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12161200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12080500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12519200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12471700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12200200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11811400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10721400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13810000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13237300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13592300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13998000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12333900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13171800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12045400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12214100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13145100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12428400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11402000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11439500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11367600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5621,167 +5810,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-302100</v>
+      </c>
+      <c r="E81" s="3">
         <v>839800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1995400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>388600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>492400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-322500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1723900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>841700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>980200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1174200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-783200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-881600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>353900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>564500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1294000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>714600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>337200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>417000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1825100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5809,85 +6007,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5963,8 +6165,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6040,8 +6245,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6117,8 +6325,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6194,8 +6405,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6271,85 +6485,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2454000</v>
+      </c>
+      <c r="E89" s="3">
         <v>687700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2029100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>861600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>644200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>506500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1064600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>867800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1195800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-709300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-744000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-942100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-401100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>733100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>957100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1332900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1977700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4841900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>177600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6022700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6377,8 +6597,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6388,74 +6609,77 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-680700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-180100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-168700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-269500</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>99800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-266500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-91600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-78900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-214600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-259400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-113600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6531,8 +6755,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6608,85 +6835,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6944400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-418000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1631100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3571900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>330100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2442400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>149900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1779700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>38422200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>34104500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-876100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3250300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-488900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2019500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-945900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>258300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2535200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6714,85 +6947,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-321500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-321200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-319000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-307700</v>
       </c>
       <c r="I96" s="3">
         <v>-307700</v>
       </c>
       <c r="J96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-308700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-309700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-715200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-357600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-294900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-428800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-434400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-394300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-103000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-612800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-379300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-381600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-367100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-327800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-329200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-329100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-293300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6868,8 +7105,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6945,8 +7185,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7022,85 +7265,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5102600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-371600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-784300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>879300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-578900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-262900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16315600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8632900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1543100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>707400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-109300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8176200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7594600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-537100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7176,81 +7425,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>612200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-101900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-386300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>295800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-334200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>257700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-120900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-153900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-456800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>972800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-188400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>459700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-213100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>653000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-52600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>151100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>277700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-161300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>167100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-118700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-720300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-842400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,366 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>161400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1090300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2172100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>544300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>617000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>1984600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1004100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1163000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3">
         <v>1909900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="3">
         <v>1005700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1105600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1758200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1129700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>694600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>290500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>693600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2088600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>663800</v>
+      </c>
+      <c r="E9" s="3">
         <v>400500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>170500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>76000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>94600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>689500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>503500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>620100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>766900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>750200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>647700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>586800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>501000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>442700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>367400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>318700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>268900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>222300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>198400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>183400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>-239100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>919800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2097200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>482500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>566600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>1908600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>909500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1047900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
         <v>1289800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-684400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3">
         <v>504700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>662900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1390800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>811000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>425700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>68200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>495200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1905200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1134,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1201,43 +1217,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>249600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1245,8 +1264,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1257,8 +1276,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1266,23 +1285,26 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1383,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1388,168 +1413,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>727100</v>
+      </c>
+      <c r="E17" s="3">
         <v>439700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>203600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>119200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>233800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>992200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>680400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>836500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>828600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>737100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>667300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>627500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>506500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>429900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>378000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>326000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>276300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>252300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>238800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-278300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>886700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2050500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>425100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>514800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>1750800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>865100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1025300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>1209100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-754000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>378200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>599100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1328300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>751700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>368600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>441300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1849800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,13 +1610,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1598,11 +1631,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1610,20 +1643,20 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
@@ -1631,8 +1664,8 @@
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="T20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1658,88 +1691,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-273600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>893100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2055200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>428600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>518100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>1759200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>878300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1036600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>1216600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-746500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>429100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>606200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1334100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>758000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>375500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>448400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1857500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1818,168 +1857,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-886900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-278300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>886700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2050400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>425100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>514800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-289700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1750800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>865100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1025300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1209100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-754100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-846700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>378200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>599100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1328300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>751700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>368700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>441400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1849700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-24600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-26700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,168 +2106,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-886800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-274000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>863300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2023900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>418500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>521500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-294800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1751100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>878600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1015500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1209700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-747200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-849300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>385400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>595900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1327700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>746800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>367300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>440400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1848500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-918300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-302100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>839800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1995400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>388600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>492400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-322500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1723900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>841700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>980200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1174200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-783200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-881600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>353900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>564500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1294000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>714600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>337200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>417000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1825100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2298,8 +2355,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2378,8 +2438,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2458,8 +2521,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2538,13 +2604,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2558,11 +2627,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2570,20 +2639,20 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
@@ -2591,8 +2660,8 @@
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="T32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2618,88 +2687,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-918300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-302100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>839800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1995400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>388600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>492400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-322500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1723900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>841700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>980200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1174200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-783200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-881600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>353900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>564500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1294000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>714600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>337200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>417000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1825100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2778,173 +2853,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-918300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-302100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>839800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1995400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>388600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>492400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-322500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1723900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>841700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>980200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1174200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-783200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-881600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>353900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>564500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1294000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>714600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>337200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>417000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1825100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2973,8 +3057,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,88 +3088,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1576700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1466200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>853900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>955800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1342100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1046300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1380500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1122800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1243700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1240000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1393900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2823500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1850700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1793900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1982300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1522600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1735700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1082700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1135300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>984300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>706600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>867800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>700700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>819400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1539700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3163,88 +3252,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1212400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2416400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>734300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>654000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>237600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>277300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>264500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>404600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>284000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>335200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1047200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1342000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>454700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>677000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>446300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1965200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>426100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1614100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>345500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>372100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>324800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>633200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>273000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>621000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>321900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3323,8 +3418,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3403,8 +3501,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3483,248 +3584,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78469900</v>
+      </c>
+      <c r="E47" s="3">
         <v>79298300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70912200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>73349400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>74597900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>74571100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>76920200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>78334800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>85747100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>86364700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89696300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>91378000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>126676500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>125114900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>128110200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>114262100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>102335700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>101767100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>96187200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>97801300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>98868900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>94302200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82258300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>81415900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>84238100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E48" s="3">
         <v>9600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>669500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>804400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>760600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>766900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>741400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>741900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>750300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>751900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>654600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>660100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>386600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>480100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>486000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>470900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>474500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>462800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>474600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E49" s="3">
         <v>17400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>25400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>136900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>137700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>98300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>92800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>94900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>96600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>98600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>100900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>103000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>91000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>92800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>95000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>97600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>100500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>103300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>106000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3803,8 +3916,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3883,35 +3999,38 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>11400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>97400</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>194100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>238000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3302000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4400700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3927,8 +4046,8 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3963,8 +4082,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4043,88 +4165,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81850700</v>
+      </c>
+      <c r="E54" s="3">
         <v>85406800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73637200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76185100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76764100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76662400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82376300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85369600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>88455100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89192400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93458700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96917300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>130295100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>128956100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>131800800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>119172500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105787500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105961800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>98833000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100382200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>101760100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>97574200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>84976600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>84659000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>87905000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4153,8 +4281,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4183,8 +4312,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4246,185 +4376,194 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>207800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>121200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>84900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>161400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>184300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>59512600</v>
+      </c>
+      <c r="E58" s="3">
         <v>54160700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51364100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52626500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54769600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>55475400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>60221100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>61202500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64641200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64633400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>67163600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>72580200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>101740700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>102595300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>105093500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>88476200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>80581700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>78691200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>75760700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>78015400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>77696300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>69430300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>62497400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>62719100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>65215800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1906500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9787800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2453900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2407700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>573900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1014700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>661300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1495000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1658000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2632200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1562100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1317700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1192100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1698200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5645000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1548100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3007800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1936600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>723900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1257500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5801900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1534800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>828600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>533700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4503,115 +4642,121 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8795000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8840200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8199400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8401600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7108000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5306000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4540600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4147900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7220400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7396900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8505700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8655100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10563500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8894600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8184600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8426700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8575600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8801500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6799100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7044700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7119000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7383100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7536000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7677700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7865000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>155000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>159500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2362700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3319400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4627,8 +4772,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4663,8 +4808,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4743,8 +4891,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4974,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4903,88 +5057,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70580300</v>
+      </c>
+      <c r="E66" s="3">
         <v>74540600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62610500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64757900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63594200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62964600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68759200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71313800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74446800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75010200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79665200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84213800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114503100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>113736800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116098100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>103396300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91675400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91011800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>85064400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86445000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86894600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>83425400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>72374100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>72018900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>75336900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5013,8 +5173,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5093,8 +5254,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5173,8 +5337,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5203,7 +5370,7 @@
         <v>1536600</v>
       </c>
       <c r="L70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="M70" s="3">
         <v>1982000</v>
@@ -5218,10 +5385,10 @@
         <v>1982000</v>
       </c>
       <c r="Q70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="R70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="R70" s="3">
-        <v>1778200</v>
       </c>
       <c r="S70" s="3">
         <v>1778200</v>
@@ -5230,19 +5397,19 @@
         <v>1778200</v>
       </c>
       <c r="U70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="V70" s="3">
         <v>1723200</v>
       </c>
       <c r="W70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="X70" s="3">
         <v>1720400</v>
       </c>
       <c r="Y70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="Z70" s="3">
         <v>1200600</v>
@@ -5253,8 +5420,11 @@
       <c r="AB70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5333,88 +5503,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9543200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8211400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7496100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7980400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5493,8 +5669,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5573,8 +5752,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5653,88 +5835,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9733900</v>
+      </c>
+      <c r="E76" s="3">
         <v>9329600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9490200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9890700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11633300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12161200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12080500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12519200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12471700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12200200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11811400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10721400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13810000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13237300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13592300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13998000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12333900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13171800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12045400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12214100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13145100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12428400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11402000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11439500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11367600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5813,173 +6001,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-918300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-302100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>839800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1995400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>388600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>492400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-322500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1723900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>841700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>980200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1174200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-783200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-881600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>353900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>564500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1294000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>714600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>337200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>417000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1825100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6008,88 +6205,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6168,8 +6369,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6248,8 +6452,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6328,8 +6535,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6408,8 +6618,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6488,88 +6701,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E89" s="3">
         <v>2454000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>687700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2029100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>861600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>644200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>506500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1064600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>867800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1195800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-709300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-744000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-942100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-401100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>733100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>957100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1332900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1977700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4841900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>177600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6022700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6598,8 +6817,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,74 +6832,77 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-680700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-180100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-168700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-269500</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>99800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-266500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-91600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-78900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-214600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-259400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-113600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6758,8 +6981,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6838,88 +7064,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5533500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6944400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-418000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1631100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3571900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>330100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2442400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>149900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1779700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>38422200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>34104500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-876100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3250300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-488900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2019500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-945900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>258300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2535200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6948,88 +7180,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-411800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-354100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-321500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-321200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-319000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-307700</v>
       </c>
       <c r="J96" s="3">
         <v>-307700</v>
       </c>
       <c r="K96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="L96" s="3">
         <v>-308700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-309700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-715200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-357600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-294900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-428800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-434400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-394300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-103000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-612800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-379300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-381600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-367100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-327800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-329200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-329100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-293300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7108,8 +7344,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7188,8 +7427,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7268,88 +7510,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5442500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5102600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-371600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-784300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>879300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-578900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-262900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16315600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8632900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1543100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>707400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-109300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8176200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7594600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-537100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7428,84 +7676,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E102" s="3">
         <v>612200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-101900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-386300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>295800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-334200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>257700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-120900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-153900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-456800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>972800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-188400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>459700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-213100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>653000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-52600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>151100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>277700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-161300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>167100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-118700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-720300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-842400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,379 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
         <v>161400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1090300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2172100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>544300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>617000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>1984600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1004100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1163000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1909900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="3">
         <v>1005700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1105600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1758200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1129700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>694600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>290500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>693600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2088600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>798800</v>
+      </c>
+      <c r="E9" s="3">
         <v>663800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>170500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>61000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>76000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>689500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>503500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>620100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>766900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>750200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>647700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>586800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>501000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>442700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>367400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>318700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>268900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>222300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>198400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>183400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>-787700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
         <v>-239100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>919800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2097200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>482500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>566600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>1908600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>909500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1047900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1289800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-684400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="3">
         <v>504700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>662900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1390800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>811000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>425700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>68200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>495200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1905200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1067,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1151,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,46 +1237,49 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>249600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1267,8 +1287,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1279,8 +1299,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1288,23 +1308,26 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,8 +1409,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1414,174 +1440,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>839400</v>
+      </c>
+      <c r="E17" s="3">
         <v>727100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>439700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>203600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>121600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>119200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>233800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>137700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>992200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>680400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>836500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>828600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>737100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>667300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>627500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>506500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>429900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>378000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>326000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>276300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>252300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>238800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>-828300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>-278300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>886700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2050500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>425100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>514800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>1750800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>865100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1025300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1209100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-754000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
         <v>378200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>599100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1328300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>751700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>368600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>441300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1849800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1611,16 +1644,17 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1634,11 +1668,11 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1646,20 +1680,20 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>8</v>
@@ -1667,8 +1701,8 @@
       <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1694,91 +1728,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-823200</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-273600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>893100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2055200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>428600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>518100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>1759200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>878300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1036600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1216600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-746500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>429100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>606200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1334100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>758000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>375500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>448400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1857500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1860,174 +1900,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-828300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-886900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-278300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>886700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2050400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>425100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>514800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-289700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1750800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>865100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1025300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1209100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-754100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-846700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>378200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>599100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1328300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>751700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>368700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>14200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>441400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1849700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-24600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-26700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2109,174 +2158,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-839300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-886800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-274000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>863300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2023900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>418500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>521500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-294800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1751100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>878600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1015500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1209700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-747200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-849300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>385400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>595900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1327700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>746800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>367300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>440400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1848500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-876100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-918300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-302100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>839800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1995400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>388600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>492400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-322500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1723900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>841700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>980200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1174200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-783200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-881600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>353900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>564500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1294000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>714600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>337200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>417000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1825100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2358,8 +2416,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2441,8 +2502,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,8 +2588,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2607,16 +2674,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2630,11 +2700,11 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2642,20 +2712,20 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>8</v>
@@ -2663,8 +2733,8 @@
       <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2690,91 +2760,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-876100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-918300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-302100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>839800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1995400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>388600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>492400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-322500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1723900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>841700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>980200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1174200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-783200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-881600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>353900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>564500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1294000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>714600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>337200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>417000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1825100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2856,179 +2932,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-876100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-918300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-302100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>839800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1995400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>388600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>492400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-322500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1723900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>841700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>980200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1174200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-783200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-881600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>353900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>564500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1294000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>714600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>337200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>417000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1825100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,8 +3143,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3089,91 +3175,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1794200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1576700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1466200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>853900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>955800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1342100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1046300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1380500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1122800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1243700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1240000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1393900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2823500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1850700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1793900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1982300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1522600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1735700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1082700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1135300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>984300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>706600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>867800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>819400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1539700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3255,91 +3345,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1452800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1212400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2416400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>734300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>654000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>237600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>277300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>264500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>404600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>284000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>335200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1047200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1342000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>454700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>677000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>446300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1965200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>426100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1614100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>345500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>372100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>324800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>633200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>273000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>621000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>321900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3421,8 +3517,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3504,8 +3603,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3587,257 +3689,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>82949600</v>
+      </c>
+      <c r="E47" s="3">
         <v>78469900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>79298300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>70912200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>73349400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>74597900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>74571100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>76920200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>78334800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>85747100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86364700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89696300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>91378000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>126676500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>125114900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>128110200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>114262100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>102335700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>101767100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>96187200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>97801300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>98868900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>94302200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82258300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>81415900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>84238100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>8900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>669500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>804400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>760600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>766900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>741400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>741900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>750300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>751900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>654600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>660100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>386600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>480100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>486000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>470900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>474500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>462800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>474600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E49" s="3">
         <v>16700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>25400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>127300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>136900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>137700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>98300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>94900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>96600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>98600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>100900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>103000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>91000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>92800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>95000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>97600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>100500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>103300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>106000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3919,8 +4033,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4002,38 +4119,41 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>11400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97400</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>194100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>238000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3302000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4049,8 +4169,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4085,8 +4205,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4168,91 +4291,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>86832000</v>
+      </c>
+      <c r="E54" s="3">
         <v>81850700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85406800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73637200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76185100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76764100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76662400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82376300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85369600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>88455100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89192400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93458700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96917300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>130295100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>128956100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>131800800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>119172500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105787500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105961800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>98833000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>100382200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>101760100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>97574200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>84976600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>84659000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>87905000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4282,8 +4411,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4313,8 +4443,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4379,191 +4510,200 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>207800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>121200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>84900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>161400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>184300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>60993000</v>
+      </c>
+      <c r="E58" s="3">
         <v>59512600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54160700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>51364100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>52626500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>54769600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>55475400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60221100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>61202500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64641200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64633400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67163600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>72580200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>101740700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>102595300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>105093500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>88476200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>80581700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>78691200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>75760700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>78015400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>77696300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>69430300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>62497400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>62719100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>65215800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3708800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1906500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9787800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2453900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2407700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>573900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1014700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>661300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1495000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1658000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2632200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1562100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1317700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1192100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1698200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5645000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1548100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3007800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1936600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>723900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1257500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5801900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1534800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>828600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>533700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4645,121 +4785,127 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9729300</v>
+      </c>
+      <c r="E61" s="3">
         <v>8795000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8840200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8199400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8401600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7108000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5306000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4540600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4147900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7220400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7396900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8505700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8655100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10563500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8894600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8184600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8426700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8575600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8801500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6799100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7044700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7119000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7383100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7536000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7677700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7865000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>155000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>159500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2362700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3319400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4775,8 +4921,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4811,8 +4957,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4894,8 +5043,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4977,8 +5129,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5060,91 +5215,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75039900</v>
+      </c>
+      <c r="E66" s="3">
         <v>70580300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74540600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62610500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64757900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63594200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62964600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68759200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71313800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74446800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75010200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79665200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84213800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114503100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>113736800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116098100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>103396300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91675400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91011800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>85064400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86445000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86894600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>83425400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>72374100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>72018900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>75336900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5174,8 +5335,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5257,8 +5419,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5340,8 +5505,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5373,7 +5541,7 @@
         <v>1536600</v>
       </c>
       <c r="M70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="N70" s="3">
         <v>1982000</v>
@@ -5388,10 +5556,10 @@
         <v>1982000</v>
       </c>
       <c r="R70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="S70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1778200</v>
       </c>
       <c r="T70" s="3">
         <v>1778200</v>
@@ -5400,19 +5568,19 @@
         <v>1778200</v>
       </c>
       <c r="V70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="W70" s="3">
         <v>1723200</v>
       </c>
       <c r="X70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="Y70" s="3">
         <v>1720400</v>
       </c>
       <c r="Z70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="AA70" s="3">
         <v>1200600</v>
@@ -5423,8 +5591,11 @@
       <c r="AC70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5506,91 +5677,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10741900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9543200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8211400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7496100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7980400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5672,8 +5849,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5755,8 +5935,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5838,91 +6021,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10255600</v>
+      </c>
+      <c r="E76" s="3">
         <v>9733900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9329600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9490200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9890700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11633300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12161200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12080500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12519200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12471700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12200200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11811400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10721400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13810000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13237300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13592300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13998000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12333900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13171800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12045400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12214100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13145100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12428400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11402000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11439500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11367600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6004,179 +6193,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-876100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-918300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-302100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>839800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1995400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>388600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>492400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-322500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1723900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>841700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>980200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1174200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-783200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-881600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>353900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>564500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1294000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>714600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>337200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>417000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1825100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6206,91 +6404,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6372,8 +6574,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6455,8 +6660,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6538,8 +6746,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6621,8 +6832,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6704,91 +6918,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1019000</v>
+      </c>
+      <c r="E89" s="3">
         <v>201600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2454000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>687700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2029100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>861600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>644200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>506500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1064600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>867800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1195800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-709300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-744000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-942100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-401100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>733100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>957100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1332900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1977700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4841900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-64900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>177600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6022700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6818,91 +7038,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-142600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-263000</v>
       </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-421000</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-57400</v>
       </c>
       <c r="J91" s="3">
+        <v>-317200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-680700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-180100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-168700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-269500</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>99800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-266500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-91600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-78900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-214600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-259400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-113600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6984,8 +7208,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7067,91 +7294,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1080800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5533500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6944400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-418000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1631100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3571900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>330100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2442400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>149900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1779700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>38422200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>34104500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-876100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3250300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-488900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2019500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-945900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>258300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>2535200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7181,91 +7414,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-444100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-411800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-354100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-321500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-321200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-319000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-307700</v>
       </c>
       <c r="K96" s="3">
         <v>-307700</v>
       </c>
       <c r="L96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-308700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-309700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-715200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-357600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-294900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-428800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-434400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-394300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-103000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-612800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-379300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-381600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-367100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-327800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-329200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-329100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-293300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7347,8 +7584,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7430,8 +7670,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7513,91 +7756,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2317300</v>
+      </c>
+      <c r="E100" s="3">
         <v>5442500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5102600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-371600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-784300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>879300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-578900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-262900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16315600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8632900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1543100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>707400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-109300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8176200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7594600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-537100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7679,87 +7928,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E102" s="3">
         <v>110500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>612200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-101900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-386300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>295800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-334200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>257700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-120900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-153900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-456800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>972800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-188400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>459700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-213100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>653000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-52600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>151100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>277700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-161300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>167100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-118700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-720300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-842400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,379 +665,391 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1171800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>161400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1090300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2172100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>544300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>617000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>1984600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1004100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1163000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="3">
         <v>1909900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="3">
         <v>1005700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1105600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1758200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1129700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>694600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>290500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>693600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2088600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>953500</v>
+      </c>
+      <c r="E9" s="3">
         <v>798800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>663800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>170500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>76000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>689500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>503500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>620100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>766900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>750200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>647700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>586800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>501000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>442700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>367400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>318700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>268900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>222300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>198400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>183400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-787700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>-239100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>919800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2097200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>482500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>566600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>1908600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>909500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1047900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
         <v>1289800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-684400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="3">
         <v>504700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>662900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1390800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>811000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>425700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>68200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>495200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1905200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1080,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1154,8 +1167,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1256,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1249,40 +1268,40 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>249600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1290,8 +1309,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1302,8 +1321,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1311,23 +1330,26 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1412,8 +1434,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1441,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>996400</v>
+      </c>
+      <c r="E17" s="3">
         <v>839400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>727100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>439700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>203600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>121600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>119200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>117800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>233800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>992200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>680400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>836500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>828600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>737100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>667300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>627500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>506500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>429900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>378000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>326000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>276300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>252300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>238800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-828300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>-278300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>886700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2050500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>425100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>514800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>1750800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>865100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1025300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>1209100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-754000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>378200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>599100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1328300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>751700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>368600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>441300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1849800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,19 +1677,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1671,11 +1704,11 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1683,20 +1716,20 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>8</v>
@@ -1704,8 +1737,8 @@
       <c r="U20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="V20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1731,94 +1764,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-823200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>-273600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>893100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2055200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>428600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>518100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1759200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>878300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1036600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>1216600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-746500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>429100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>606200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1334100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>758000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>375500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>22000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>448400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1857500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1903,180 +1942,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-828300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-886900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-278300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>886700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2050400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>425100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>514800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-289700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1750800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>865100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1025300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1209100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-754100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-846700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>378200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>599100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1328300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>751700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>368700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>14200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>441400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1849700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-24600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2161,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-839300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-886800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-274000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>863300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2023900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>418500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>521500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-294800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1751100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>878600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1015500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1209700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-747200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-849300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>385400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>595900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1327700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>746800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>367300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>440400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1848500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-876100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-918300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-302100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>839800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1995400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>388600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>492400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-322500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1723900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>841700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>980200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1174200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-783200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-881600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>353900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>564500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1294000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>714600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>337200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>417000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1825100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2419,8 +2476,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2505,8 +2565,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2677,19 +2743,22 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2703,11 +2772,11 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2715,20 +2784,20 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>8</v>
@@ -2736,8 +2805,8 @@
       <c r="U32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="V32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2763,94 +2832,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-876100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-918300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-302100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>839800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1995400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>388600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>492400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-322500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1723900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>841700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>980200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1174200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-783200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-881600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>353900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>564500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1294000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>714600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>337200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>417000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1825100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2935,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-876100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-918300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-302100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>839800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1995400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>388600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>492400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-322500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1723900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>841700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>980200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1174200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-783200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-881600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>353900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>564500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1294000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>714600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>337200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>417000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1825100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3144,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3176,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1794200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1576700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1466200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>853900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>955800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1342100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1046300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1380500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1122800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1243700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1240000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1393900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2823500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1850700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1793900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1982300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1522600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1735700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1082700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1135300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>984300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>706600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>867800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>819400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1539700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3348,94 +3437,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1452800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1212400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2416400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>734300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>654000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>237600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>277300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>264500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>404600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>284000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>335200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1047200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1342000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>454700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>677000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>446300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1965200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>426100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1614100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>345500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>372100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>324800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>633200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>273000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>621000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>321900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3520,8 +3615,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3606,8 +3704,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3692,266 +3793,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>85694100</v>
+      </c>
+      <c r="E47" s="3">
         <v>82949600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78469900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>79298300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>70912200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>73349400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>74597900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>74571100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76920200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78334800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>85747100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>86364700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89696300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>91378000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>126676500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>125114900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>128110200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>114262100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>102335700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>101767100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>96187200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>97801300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>98868900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>94302200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>82258300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>81415900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>84238100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>669500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>804400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>760600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>766900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>741400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>741900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>750300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>751900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>654600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>660100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>386600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>480100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>486000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>470900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>474500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>462800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>474600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E49" s="3">
         <v>15900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>25400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>127300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>136900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>137700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>98300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>94900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>96600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>98600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>100900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>103000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>91000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>92800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>95000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>97600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>100500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>103300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>106000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4036,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4122,41 +4238,44 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>11400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>97400</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>194100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>238000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3302000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4172,8 +4291,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4208,8 +4327,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4294,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89330500</v>
+      </c>
+      <c r="E54" s="3">
         <v>86832000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81850700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85406800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73637200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76185100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76764100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76662400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82376300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85369600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88455100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89192400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93458700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96917300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>130295100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>128956100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>131800800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>119172500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105787500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105961800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>98833000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>100382200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>101760100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>97574200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>84976600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>84659000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>87905000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4412,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4444,8 +4573,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4513,197 +4643,206 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>207800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>121200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>84900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>161400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>184300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61637600</v>
+      </c>
+      <c r="E58" s="3">
         <v>60993000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>59512600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>54160700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>51364100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>52626500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>54769600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>55475400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60221100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>61202500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64641200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>64633400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>67163600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>72580200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>101740700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>102595300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>105093500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>88476200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>80581700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>78691200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>75760700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>78015400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>77696300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>69430300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>62497400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>62719100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>65215800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4802400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3708800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1906500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9787800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2453900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2407700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>573900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1014700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>661300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1495000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1658000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2632200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1562100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1317700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1192100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1698200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5645000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1548100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3007800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1936600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>723900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1257500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5801900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1534800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>828600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>533700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4788,127 +4927,133 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10781600</v>
+      </c>
+      <c r="E61" s="3">
         <v>9729300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8795000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8840200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8199400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8401600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7108000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5306000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4540600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4147900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7220400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7396900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8505700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8655100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10563500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8894600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8184600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8426700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8575600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8801500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6799100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7044700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7119000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7383100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7536000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7677700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7865000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>155000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>159500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2362700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3319400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4924,8 +5069,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4960,8 +5105,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5046,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5132,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5218,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77554200</v>
+      </c>
+      <c r="E66" s="3">
         <v>75039900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70580300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74540600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62610500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64757900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63594200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62964600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68759200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71313800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74446800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>75010200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79665200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84213800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>114503100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>113736800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>116098100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>103396300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91675400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91011800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>85064400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86445000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86894600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>83425400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>72374100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>72018900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>75336900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5336,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5422,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5508,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5544,7 +5711,7 @@
         <v>1536600</v>
       </c>
       <c r="N70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="O70" s="3">
         <v>1982000</v>
@@ -5559,10 +5726,10 @@
         <v>1982000</v>
       </c>
       <c r="S70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="T70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1778200</v>
       </c>
       <c r="U70" s="3">
         <v>1778200</v>
@@ -5571,19 +5738,19 @@
         <v>1778200</v>
       </c>
       <c r="W70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="X70" s="3">
         <v>1723200</v>
       </c>
       <c r="Y70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="Z70" s="3">
         <v>1720400</v>
       </c>
       <c r="AA70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="AB70" s="3">
         <v>1200600</v>
@@ -5594,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5680,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10933000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10741900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9543200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8211400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7496100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7980400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5852,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5938,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6024,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10239700</v>
+      </c>
+      <c r="E76" s="3">
         <v>10255600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9733900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9329600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9490200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9890700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11633300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12161200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12080500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12519200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12471700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12200200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11811400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10721400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13810000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13237300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13592300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13998000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12333900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13171800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12045400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12214100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13145100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12428400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11402000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11439500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11367600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6196,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-876100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-918300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-302100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>839800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1995400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>388600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>492400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-322500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1723900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>841700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>980200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1174200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-783200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-881600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>353900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>564500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1294000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>714600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>337200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>417000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1825100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6405,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>10100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6577,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6663,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6749,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6835,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6921,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1136600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1019000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>201600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2454000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>687700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2029100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>861600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>644200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>506500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1064600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>867800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1195800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-709300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-744000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-942100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-401100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>733100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>957100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1332900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1977700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4841900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-64900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>177600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>6022700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7039,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-142600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-182800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-263000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-421000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-317200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-680700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-180100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-168700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-269500</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>99800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-266500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-91600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-78900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-214600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-259400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-113600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7211,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7297,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3166000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1080800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5533500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6944400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-418000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1631100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3571900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>330100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2442400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>149900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1779700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>38422200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>34104500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-876100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3250300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-488900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2019500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-945900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>258300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>2535200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7415,94 +7647,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-289200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-444100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-411800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-354100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-321500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-321200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-319000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-307700</v>
       </c>
       <c r="L96" s="3">
         <v>-307700</v>
       </c>
       <c r="M96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-308700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-309700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-715200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-357600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-294900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-428800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-434400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-394300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-103000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-612800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-379300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-381600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-367100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-327800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-329200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-329100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-293300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7587,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7673,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7759,94 +8001,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1472100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2317300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5442500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5102600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-371600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-784300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>879300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-578900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-262900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>16315600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8632900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1543100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>707400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-109300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8176200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7594600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-537100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7931,90 +8179,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-557300</v>
+      </c>
+      <c r="E102" s="3">
         <v>217500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>110500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>612200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-386300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>295800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-334200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>257700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-120900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-153900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-456800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>972800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-188400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>459700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-213100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>653000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-52600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>151100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>277700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-161300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>167100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-118700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-720300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-842400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-353100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>NLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,391 +665,403 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1171800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <v>161400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1090300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2172100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>544300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>617000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>1984600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1004100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1163000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="3">
         <v>1909900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>82500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="3">
         <v>1005700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1105600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1758200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1129700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>694600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>290500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>693600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2088600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>928300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="E9" s="3">
         <v>953500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>798800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>663800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>170500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>61800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>76000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>689500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>503500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>620100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>766900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>750200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>647700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>586800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>501000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>442700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>367400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>318700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>268900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>222300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>198400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>183400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-516800</v>
+      </c>
+      <c r="E10" s="3">
         <v>218300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-787700</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>-239100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>919800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2097200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>482500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>566600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>1908600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>909500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1047900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
         <v>1289800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-684400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="3">
         <v>504700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>662900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1390800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>811000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>425700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>68200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>495200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1905200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>754100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,8 +1093,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1183,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,8 +1275,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1271,40 +1290,40 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>249600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1312,8 +1331,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1324,8 +1343,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1333,23 +1352,26 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>-72600</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1437,8 +1459,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1467,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1086700</v>
+      </c>
+      <c r="E17" s="3">
         <v>996400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>839400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>727100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>439700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>203600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>119200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>233800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>137700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>992200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>680400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>836500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>828600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>737100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>667300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>627500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>506500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>429900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>378000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>326000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>276300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>252300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>238800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-556700</v>
+      </c>
+      <c r="E18" s="3">
         <v>175400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-828300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>-278300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>886700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2050500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>425100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>514800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>1750800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>865100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1025300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>1209100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-754000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="3">
         <v>378200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>599100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1328300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>751700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>368600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>441300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1849800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1678,8 +1710,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1689,11 +1722,11 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1707,11 +1740,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1719,20 +1752,20 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>8</v>
@@ -1740,8 +1773,8 @@
       <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
+      <c r="W20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1767,97 +1800,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-549400</v>
+      </c>
+      <c r="E21" s="3">
         <v>182400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-823200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>-273600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>893100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2055200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>428600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>518100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1759200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>878300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1036600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>1216600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-746500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>429100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>606200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1334100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>758000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>375500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>22000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>448400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1857500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>737600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1945,186 +1984,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-556700</v>
+      </c>
+      <c r="E23" s="3">
         <v>175500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-828300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-886900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-278300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>886700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2050400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>425100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>514800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-289700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1750800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>865100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1025300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2808600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3666900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1209100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-754100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1782300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-846700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2253800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>378200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>599100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1328300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>751700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>368700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>14200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>441400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1849700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>729000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E24" s="3">
         <v>14300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-26700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1200</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2212,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-569100</v>
+      </c>
+      <c r="E26" s="3">
         <v>161200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-839300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-886800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-274000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>863300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2023900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>418500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>521500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-294800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1751100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>878600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1015500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2784000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3640200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1209700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-747200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-849300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2254900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>385400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>595900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1327700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>746800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>367300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>14500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>440400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1848500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>730900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="E27" s="3">
         <v>131300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-876100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-918300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-302100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>839800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1995400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>388600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>492400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-322500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1723900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>841700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>980200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2855100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3675800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1174200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-783200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1808800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-881600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2287400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>353900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>564500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1294000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>714600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>337200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>417000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1825100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2568,8 +2628,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,8 +2812,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2757,11 +2826,11 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2775,11 +2844,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2787,20 +2856,20 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>8</v>
@@ -2808,8 +2877,8 @@
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2835,97 +2904,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="E33" s="3">
         <v>131300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-876100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-918300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-302100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>839800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1995400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>388600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>492400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-322500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1723900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>841700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>980200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2855100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3675800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1174200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-783200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1808800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-881600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2287400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>353900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>564500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1294000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>714600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>337200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>417000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1825100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3013,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="E35" s="3">
         <v>131300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-876100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-918300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-302100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>839800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1995400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>388600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>492400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-322500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1723900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>841700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>980200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2855100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3675800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1174200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-783200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1808800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-881600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2287400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>353900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>564500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1294000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>714600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>337200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>417000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1825100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3229,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3262,97 +3347,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1241100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1236900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1794200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1576700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1466200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>853900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>955800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1342100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1046300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1380500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1122800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1243700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1240000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1393900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2823500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1850700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1793900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1982300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1522600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1735700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1082700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1135300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>984300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>706600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>867800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>700700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>819400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1539700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2382200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3440,97 +3529,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2206200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1732000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1452800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1212400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2416400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>734300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>654000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>237600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>277300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>264500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>404600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>284000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>335200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1047200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1342000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>454700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>677000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>446300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1965200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>426100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1614100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>345500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>372100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>324800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>633200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>273000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>621000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>321900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>754400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3618,8 +3713,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3707,8 +3805,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3796,275 +3897,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>85339000</v>
+      </c>
+      <c r="E47" s="3">
         <v>85694100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>82949600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78469900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79298300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70912200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>73349400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>74597900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>74571100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76920200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78334800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>85747100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>86364700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89696300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>91378000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>126676500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>125114900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>128110200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>114262100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>102335700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>101767100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>96187200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>97801300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>98868900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>94302200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>82258300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>81415900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>84238100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>82166200</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>669500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>804400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>760600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>766900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>741400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>741900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>750300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>751900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>654600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>660100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>386600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>480100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>486000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>470900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>474500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>462800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>474600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E49" s="3">
         <v>15200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>127300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>136900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>137700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>98300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>94900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>96600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>98600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>100900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>103000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>91000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>92800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>95000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>97600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>100500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>103300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>106000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4152,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4241,8 +4357,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4252,33 +4371,33 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>11400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97400</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>194100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>238000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3302000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4294,8 +4413,8 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4330,8 +4449,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4419,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89648400</v>
+      </c>
+      <c r="E54" s="3">
         <v>89330500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>86832000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>81850700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85406800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73637200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76185100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76764100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76662400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82376300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85369600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>88455100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89192400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93458700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96917300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>130295100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>128956100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>131800800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>119172500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105787500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105961800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>98833000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>100382200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>101760100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>97574200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>84976600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>84659000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>87905000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>86909300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4541,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4574,8 +4703,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4646,203 +4776,212 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>207800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>121200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>84900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>161400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>184300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>64693800</v>
+      </c>
+      <c r="E58" s="3">
         <v>61637600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60993000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>59512600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54160700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>51364100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>52626500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>54769600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55475400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>60221100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>61202500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>64641200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>64633400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>67163600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>72580200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>101740700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>102595300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>105093500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>88476200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>80581700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>78691200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>75760700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>78015400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>77696300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>69430300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>62497400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>62719100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>65215800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>61784100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2742500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4802400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3708800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1906500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9787800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2453900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2407700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>573900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1014700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>661300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1495000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1658000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2632200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1562100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1317700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1192100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1698200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5645000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1548100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3007800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1936600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>723900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1257500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5801900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1534800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>828600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>533700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>896700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4930,97 +5069,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11272300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10781600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9729300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8795000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8840200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8199400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8401600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7108000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5306000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4540600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4147900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7220400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7396900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8505700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8655100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10563500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8894600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8184600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8426700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8575600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8801500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6799100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7044700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7119000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7383100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7536000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7677700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7865000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>7858200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5030,33 +5175,33 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>155000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>159500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2362700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3319400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -5072,8 +5217,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -5108,8 +5253,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5197,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5286,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5375,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79084000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77554200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75039900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70580300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74540600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62610500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64757900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63594200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62964600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68759200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71313800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74446800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75010200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79665200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84213800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114503100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>113736800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>116098100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>103396300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91675400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>91011800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>85064400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86445000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>86894600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>83425400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>72374100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>72018900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>75336900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>73655600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5497,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5586,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5675,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5714,7 +5881,7 @@
         <v>1536600</v>
       </c>
       <c r="O70" s="3">
-        <v>1982000</v>
+        <v>1536600</v>
       </c>
       <c r="P70" s="3">
         <v>1982000</v>
@@ -5729,10 +5896,10 @@
         <v>1982000</v>
       </c>
       <c r="T70" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="U70" s="3">
         <v>2110300</v>
-      </c>
-      <c r="U70" s="3">
-        <v>1778200</v>
       </c>
       <c r="V70" s="3">
         <v>1778200</v>
@@ -5741,19 +5908,19 @@
         <v>1778200</v>
       </c>
       <c r="X70" s="3">
-        <v>1723200</v>
+        <v>1778200</v>
       </c>
       <c r="Y70" s="3">
         <v>1723200</v>
       </c>
       <c r="Z70" s="3">
-        <v>1720400</v>
+        <v>1723200</v>
       </c>
       <c r="AA70" s="3">
         <v>1720400</v>
       </c>
       <c r="AB70" s="3">
-        <v>1200600</v>
+        <v>1720400</v>
       </c>
       <c r="AC70" s="3">
         <v>1200600</v>
@@ -5764,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>1200600</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>1200600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5853,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11855300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10933000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10741900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9543200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8211400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7496100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7980400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9653600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9720300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9892900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9251800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10667400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11200900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11871900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12382600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8309400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9125900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7982600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5809900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4493700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1812000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1800400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2015600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2961700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3320200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3339200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-3024700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-3136000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-4655400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6031,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6120,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6209,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9027900</v>
+      </c>
+      <c r="E76" s="3">
         <v>10239700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10255600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9733900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9329600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9490200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9890700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11633300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12161200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12080500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12519200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12471700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12200200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11811400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10721400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13810000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13237300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13592300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13998000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12333900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13171800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12045400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12214100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13145100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12428400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11402000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11439500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>11367600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>12053100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6387,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="E81" s="3">
         <v>131300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-876100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-918300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-302100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>839800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1995400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>388600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>492400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-322500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1723900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>841700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>980200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2855100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3675800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1174200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-783200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1808800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-881600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2287400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>353900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>564500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1294000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>714600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>337200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>417000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1825100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>708400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6603,97 +6800,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>7800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6781,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6870,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6959,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7048,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7137,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1136600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1019000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>201600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2454000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>687700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2029100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>861600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>644200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>506500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1064600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>867800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1000500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1340300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2023300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1195800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-709300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-744000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-942100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-401100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>733100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>957100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1332900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1977700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4841900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-64900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>177600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>6022700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1032700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7259,97 +7478,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-185300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-177500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-142600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-182800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-263000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-421000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-317200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-680700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-180100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-168700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-269500</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>99800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-266500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-91600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-78900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-214600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-259400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-113600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-142700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7437,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7526,97 +7752,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5372200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3166000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1080800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5533500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6944400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-418000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1631100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1445000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3571900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>330100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2442400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>149900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1779700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>38422200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>34104500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-876100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3250300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15111900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7904000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-488900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1493100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2019500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-945900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9240200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8219300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>258300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>2535200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4269400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>2148900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7648,97 +7880,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-321100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-289200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-444100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-411800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-354100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-321500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-321200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-319000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-317800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-307700</v>
       </c>
       <c r="M96" s="3">
         <v>-307700</v>
       </c>
       <c r="N96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-308700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-309700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-715200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-357600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-294900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-428800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-434400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-394300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-103000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-612800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-379300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-381600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-367100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-327800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-329200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-329100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-293300</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-333500</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7826,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7915,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8004,97 +8246,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3505500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1472100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2317300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5442500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5102600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-371600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-784300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>879300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4550300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-578900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3627900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1014000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2934100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-37538700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31108400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-262900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2729400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16315600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8632900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1543100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>707400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2825600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-109300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8176200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>7594600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-537100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3033100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2595800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1469300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8182,93 +8430,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-557300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>217500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>110500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>612200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-101900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-386300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>295800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-334200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>257700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-120900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-153900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-456800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>972800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-188400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>459700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-213100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>653000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-52600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>151100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>277700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-161300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>167100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-118700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-720300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-842400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-353100</v>
       </c>
     </row>
